--- a/capiq_data/in_process_data/IQ33509.xlsx
+++ b/capiq_data/in_process_data/IQ33509.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C04311-4EB4-412D-845E-7AE7D193540D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EA9381-D3F3-4A34-B1FE-5B6E31858671}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"58d341d2-4d5f-4d8e-9543-b50dcb0215ec"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"836fae1b-7606-4f78-a52e-60218d3a7275"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>33.665999999999997</v>
+        <v>14.391999999999999</v>
       </c>
       <c r="D2">
-        <v>1106.4259999999999</v>
+        <v>548.19299999999998</v>
       </c>
       <c r="E2">
-        <v>901.86199999999997</v>
+        <v>538.71100000000001</v>
       </c>
       <c r="F2">
-        <v>159.25</v>
+        <v>123.39700000000001</v>
       </c>
       <c r="G2">
-        <v>1596.364</v>
+        <v>600.21</v>
       </c>
       <c r="H2">
-        <v>4341.2120000000004</v>
+        <v>1871.8969999999999</v>
       </c>
       <c r="I2">
-        <v>222.881</v>
+        <v>106.327</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>491.10199999999998</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>500.39499999999998</v>
+        <v>246.48099999999999</v>
       </c>
       <c r="O2">
-        <v>974.29300000000001</v>
+        <v>802.94100000000003</v>
       </c>
       <c r="P2">
-        <v>1.327</v>
+        <v>499.87400000000002</v>
       </c>
       <c r="Q2">
-        <v>97.974000000000004</v>
+        <v>-0.98899999999999999</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>13751</v>
+        <v>13260</v>
       </c>
       <c r="T2">
-        <v>3366.9189999999999</v>
+        <v>1068.9559999999999</v>
       </c>
       <c r="U2">
-        <v>539.221</v>
+        <v>17.306000000000001</v>
       </c>
       <c r="V2">
-        <v>261.58999999999997</v>
+        <v>3.9510000000000001</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-0.98399999999999999</v>
+        <v>80.965000000000003</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,39 +931,39 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>33.665999999999997</v>
+        <v>14.391999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>-17.594000000000001</v>
+        <v>29.303000000000001</v>
       </c>
       <c r="D3">
-        <v>848.95899999999995</v>
+        <v>519.01800000000003</v>
       </c>
       <c r="E3">
-        <v>878.06500000000005</v>
+        <v>543.75400000000002</v>
       </c>
       <c r="F3">
-        <v>70.891000000000005</v>
+        <v>108.952</v>
       </c>
       <c r="G3">
-        <v>1562.3240000000001</v>
+        <v>600.78300000000002</v>
       </c>
       <c r="H3">
-        <v>4324.5619999999999</v>
+        <v>1983.9190000000001</v>
       </c>
       <c r="I3">
-        <v>394.84899999999999</v>
+        <v>230.00899999999999</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>516.80700000000002</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,40 +972,40 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-1.9910000000000001</v>
+        <v>-5.3390000000000004</v>
       </c>
       <c r="N3">
-        <v>482.71100000000001</v>
+        <v>269.71699999999998</v>
       </c>
       <c r="O3">
-        <v>964.78399999999999</v>
+        <v>853.154</v>
       </c>
       <c r="P3">
-        <v>1.1559999999999999</v>
+        <v>525.72299999999996</v>
       </c>
       <c r="Q3">
-        <v>-36.201999999999998</v>
+        <v>-10.744</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>3359.7779999999998</v>
+        <v>1130.7650000000001</v>
       </c>
       <c r="U3">
-        <v>503.01900000000001</v>
+        <v>6.5620000000000003</v>
       </c>
       <c r="V3">
-        <v>-4.1879999999999997</v>
+        <v>60.613999999999997</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>2.3239999999999998</v>
+        <v>30.372</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,39 +1014,39 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>-17.594000000000001</v>
+        <v>29.303000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>31.800999999999998</v>
+        <v>16.683</v>
       </c>
       <c r="D4">
-        <v>1010.914</v>
+        <v>503.34199999999998</v>
       </c>
       <c r="E4">
-        <v>922.36099999999999</v>
+        <v>563.35</v>
       </c>
       <c r="F4">
-        <v>154.09</v>
+        <v>110.754</v>
       </c>
       <c r="G4">
-        <v>1476.58</v>
+        <v>627.55999999999995</v>
       </c>
       <c r="H4">
-        <v>4292.8549999999996</v>
+        <v>2025.5820000000001</v>
       </c>
       <c r="I4">
-        <v>410.262</v>
+        <v>243.935</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>513.28800000000001</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -935,81 +1055,81 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>-2.1850000000000001</v>
+        <v>-8.7360000000000007</v>
       </c>
       <c r="N4">
-        <v>503.96</v>
+        <v>285.89100000000002</v>
       </c>
       <c r="O4">
-        <v>989.57399999999996</v>
+        <v>871.03800000000001</v>
       </c>
       <c r="P4">
-        <v>1.2150000000000001</v>
+        <v>521.11300000000006</v>
       </c>
       <c r="Q4">
-        <v>-122.637</v>
+        <v>-3.79</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>3303.2809999999999</v>
+        <v>1154.5440000000001</v>
       </c>
       <c r="U4">
-        <v>380.38200000000001</v>
+        <v>2.7719999999999998</v>
       </c>
       <c r="V4">
-        <v>56.158000000000001</v>
+        <v>30.757000000000001</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-95.387</v>
+        <v>-4.0369999999999999</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>31.800999999999998</v>
+        <v>16.683</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>51.994</v>
+        <v>26.323</v>
       </c>
       <c r="D5">
-        <v>1250.819</v>
+        <v>504.47199999999998</v>
       </c>
       <c r="E5">
-        <v>1142.2840000000001</v>
+        <v>596.822</v>
       </c>
       <c r="F5">
-        <v>194.69</v>
+        <v>110.223</v>
       </c>
       <c r="G5">
-        <v>1576.877</v>
+        <v>664.43100000000004</v>
       </c>
       <c r="H5">
-        <v>4463.9549999999999</v>
+        <v>2106.7959999999998</v>
       </c>
       <c r="I5">
-        <v>527.94000000000005</v>
+        <v>225.72900000000001</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>578.94799999999998</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1018,81 +1138,81 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>-1.47</v>
+        <v>-2.8220000000000001</v>
       </c>
       <c r="N5">
-        <v>651.70799999999997</v>
+        <v>262.065</v>
       </c>
       <c r="O5">
-        <v>1160.9580000000001</v>
+        <v>919.245</v>
       </c>
       <c r="P5">
-        <v>0.1</v>
+        <v>587.25699999999995</v>
       </c>
       <c r="Q5">
-        <v>-122.544</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>3302.9969999999998</v>
+        <v>1187.5509999999999</v>
       </c>
       <c r="U5">
-        <v>257.83800000000002</v>
+        <v>2.7789999999999999</v>
       </c>
       <c r="V5">
-        <v>40.784999999999997</v>
+        <v>-4.7949999999999999</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-60.481000000000002</v>
+        <v>53.773000000000003</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>51.994</v>
+        <v>26.323</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>13.457000000000001</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>488.04500000000002</v>
       </c>
       <c r="E6">
-        <v>1149.0540000000001</v>
+        <v>509.303</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>83.909000000000006</v>
       </c>
       <c r="G6">
-        <v>1765.154</v>
+        <v>577.12</v>
       </c>
       <c r="H6">
-        <v>4699.1139999999996</v>
+        <v>2042.9010000000001</v>
       </c>
       <c r="I6">
-        <v>316.52499999999998</v>
+        <v>79.775000000000006</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>500.274</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>781.07600000000002</v>
+        <v>241.53</v>
       </c>
       <c r="O6">
-        <v>1309.8510000000001</v>
+        <v>836.15</v>
       </c>
       <c r="P6">
-        <v>5.6000000000000001E-2</v>
+        <v>508.33699999999999</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>3.508</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>17500</v>
+        <v>13487</v>
       </c>
       <c r="T6">
-        <v>3389.2629999999999</v>
+        <v>1206.751</v>
       </c>
       <c r="U6">
-        <v>315.34899999999999</v>
+        <v>6.2869999999999999</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>123.45</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>-79.331999999999994</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,122 +1263,122 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>13.457000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>45.707000000000001</v>
+        <v>-435.15600000000001</v>
       </c>
       <c r="D7">
-        <v>1328.7639999999999</v>
+        <v>449.22</v>
       </c>
       <c r="E7">
-        <v>1422.3920000000001</v>
+        <v>478.29599999999999</v>
       </c>
       <c r="F7">
-        <v>186.06399999999999</v>
+        <v>75.686999999999998</v>
       </c>
       <c r="G7">
-        <v>1770.1130000000001</v>
+        <v>549.09799999999996</v>
       </c>
       <c r="H7">
-        <v>4755.3339999999998</v>
+        <v>2019.33</v>
       </c>
       <c r="I7">
-        <v>580.83399999999995</v>
+        <v>202.06200000000001</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>462.63</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>-36.22</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>-2.8639999999999999</v>
       </c>
       <c r="N7">
-        <v>762.65599999999995</v>
+        <v>232.488</v>
       </c>
       <c r="O7">
-        <v>1284.6199999999999</v>
+        <v>796.79899999999998</v>
       </c>
       <c r="P7">
-        <v>5.6000000000000001E-2</v>
+        <v>469.88200000000001</v>
       </c>
       <c r="Q7">
-        <v>-137.982</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>3470.7139999999999</v>
+        <v>1222.5309999999999</v>
       </c>
       <c r="U7">
-        <v>177.36699999999999</v>
+        <v>6.3090000000000002</v>
       </c>
       <c r="V7">
-        <v>-60.218000000000004</v>
+        <v>68.507000000000005</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0.89900000000000002</v>
+        <v>-34.531999999999996</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-4.9059999999999997</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>45.707000000000001</v>
+        <v>-435.15600000000001</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>65.537999999999997</v>
+        <v>-177.197</v>
       </c>
       <c r="D8">
-        <v>1386.162</v>
+        <v>432.52199999999999</v>
       </c>
       <c r="E8">
-        <v>1491.577</v>
+        <v>479.04899999999998</v>
       </c>
       <c r="F8">
-        <v>212.904</v>
+        <v>48.16</v>
       </c>
       <c r="G8">
-        <v>1824.501</v>
+        <v>555.66700000000003</v>
       </c>
       <c r="H8">
-        <v>4897.3029999999999</v>
+        <v>1406.6289999999999</v>
       </c>
       <c r="I8">
-        <v>635.46900000000005</v>
+        <v>214.58199999999999</v>
       </c>
       <c r="J8">
-        <v>39</v>
+        <v>511.19299999999998</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1267,81 +1387,81 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-310.65300000000002</v>
+        <v>-3.2349999999999999</v>
       </c>
       <c r="N8">
-        <v>783.971</v>
+        <v>242.86500000000001</v>
       </c>
       <c r="O8">
-        <v>1351.1489999999999</v>
+        <v>814.524</v>
       </c>
       <c r="P8">
-        <v>39.033000000000001</v>
+        <v>518.78300000000002</v>
       </c>
       <c r="Q8">
-        <v>-4.4989999999999997</v>
+        <v>-1.732</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>3546.154</v>
+        <v>592.10500000000002</v>
       </c>
       <c r="U8">
-        <v>172.86799999999999</v>
+        <v>4.577</v>
       </c>
       <c r="V8">
-        <v>86.299000000000007</v>
+        <v>-15.693</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>32.796999999999997</v>
+        <v>36.856000000000002</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-48.844000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>65.537999999999997</v>
+        <v>-177.197</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>96.397999999999996</v>
+        <v>-8.3160000000000007</v>
       </c>
       <c r="D9">
-        <v>1532.001</v>
+        <v>436.21499999999997</v>
       </c>
       <c r="E9">
-        <v>1819.979</v>
+        <v>453.25299999999999</v>
       </c>
       <c r="F9">
-        <v>252</v>
+        <v>54.268000000000001</v>
       </c>
       <c r="G9">
-        <v>2136.4270000000001</v>
+        <v>549.40200000000004</v>
       </c>
       <c r="H9">
-        <v>5255.27</v>
+        <v>1397.42</v>
       </c>
       <c r="I9">
-        <v>771.50599999999997</v>
+        <v>192.40100000000001</v>
       </c>
       <c r="J9">
-        <v>125</v>
+        <v>518.048</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1350,40 +1470,40 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>-339.55399999999997</v>
+        <v>-2.4119999999999999</v>
       </c>
       <c r="N9">
-        <v>925.35199999999998</v>
+        <v>215.72200000000001</v>
       </c>
       <c r="O9">
-        <v>1585.0260000000001</v>
+        <v>810.48800000000006</v>
       </c>
       <c r="P9">
-        <v>125.01900000000001</v>
+        <v>524.92200000000003</v>
       </c>
       <c r="Q9">
-        <v>-44.658999999999999</v>
+        <v>10.788</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>3670.2440000000001</v>
+        <v>586.93200000000002</v>
       </c>
       <c r="U9">
-        <v>128.21</v>
+        <v>15.365</v>
       </c>
       <c r="V9">
-        <v>-59.771000000000001</v>
+        <v>9.1969999999999992</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>79.835999999999999</v>
+        <v>6.7450000000000001</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,39 +1512,39 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>96.397999999999996</v>
+        <v>-8.3160000000000007</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>98.986000000000004</v>
+        <v>1.113</v>
       </c>
       <c r="D10">
-        <v>1673.3420000000001</v>
+        <v>432.75599999999997</v>
       </c>
       <c r="E10">
-        <v>1670.8579999999999</v>
+        <v>421.80599999999998</v>
       </c>
       <c r="F10">
-        <v>286.73899999999998</v>
+        <v>58.658000000000001</v>
       </c>
       <c r="G10">
-        <v>2201.7269999999999</v>
+        <v>529.49699999999996</v>
       </c>
       <c r="H10">
-        <v>5140.7569999999996</v>
+        <v>1364.8119999999999</v>
       </c>
       <c r="I10">
-        <v>373.947</v>
+        <v>82.498000000000005</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>385.66699999999997</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>881.17899999999997</v>
+        <v>212.14099999999999</v>
       </c>
       <c r="O10">
-        <v>1368.8409999999999</v>
+        <v>753.14099999999996</v>
       </c>
       <c r="P10">
-        <v>8.9999999999999993E-3</v>
+        <v>392.31900000000002</v>
       </c>
       <c r="Q10">
-        <v>266.49200000000002</v>
+        <v>12.536</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>17800</v>
+        <v>11743</v>
       </c>
       <c r="T10">
-        <v>3771.9160000000002</v>
+        <v>611.67100000000005</v>
       </c>
       <c r="U10">
-        <v>394.70100000000002</v>
+        <v>27.901</v>
       </c>
       <c r="V10">
-        <v>135.92699999999999</v>
+        <v>59.503</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-128.876</v>
+        <v>-38.822000000000003</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,39 +1595,39 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>98.986000000000004</v>
+        <v>1.113</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>72.081000000000003</v>
+        <v>-4.843</v>
       </c>
       <c r="D11">
-        <v>1585.71</v>
+        <v>367.12900000000002</v>
       </c>
       <c r="E11">
-        <v>1690.819</v>
+        <v>375.517</v>
       </c>
       <c r="F11">
-        <v>238.273</v>
+        <v>37.756999999999998</v>
       </c>
       <c r="G11">
-        <v>2185.665</v>
+        <v>520.87699999999995</v>
       </c>
       <c r="H11">
-        <v>5154.8180000000002</v>
+        <v>1344.9490000000001</v>
       </c>
       <c r="I11">
-        <v>666.65</v>
+        <v>163.30699999999999</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>385.00799999999998</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>-1.9650000000000001</v>
       </c>
       <c r="N11">
-        <v>829.88599999999997</v>
+        <v>186.83099999999999</v>
       </c>
       <c r="O11">
-        <v>1323.9970000000001</v>
+        <v>660.81299999999999</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>391.26799999999997</v>
       </c>
       <c r="Q11">
-        <v>-28.082000000000001</v>
+        <v>33.531999999999996</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>3830.8209999999999</v>
+        <v>684.13599999999997</v>
       </c>
       <c r="U11">
-        <v>366.61900000000003</v>
+        <v>61.433</v>
       </c>
       <c r="V11">
-        <v>44.131999999999998</v>
+        <v>37.292000000000002</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-4.9569999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-8.5449999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>72.081000000000003</v>
+        <v>-4.843</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>70.236999999999995</v>
+        <v>-9.8350000000000009</v>
       </c>
       <c r="D12">
-        <v>1474.377</v>
+        <v>408.30200000000002</v>
       </c>
       <c r="E12">
-        <v>1687.981</v>
+        <v>407.51299999999998</v>
       </c>
       <c r="F12">
-        <v>241.28399999999999</v>
+        <v>53.518000000000001</v>
       </c>
       <c r="G12">
-        <v>2176.8270000000002</v>
+        <v>550.53</v>
       </c>
       <c r="H12">
-        <v>5187.9309999999996</v>
+        <v>1360.674</v>
       </c>
       <c r="I12">
-        <v>611.99699999999996</v>
+        <v>178.40100000000001</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>384.447</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1599,81 +1719,81 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>-1.784</v>
       </c>
       <c r="N12">
-        <v>800.41499999999996</v>
+        <v>199.95699999999999</v>
       </c>
       <c r="O12">
-        <v>1300.0920000000001</v>
+        <v>681.85400000000004</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>390.70800000000003</v>
       </c>
       <c r="Q12">
-        <v>-3.5059999999999998</v>
+        <v>24.681999999999999</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>3887.8389999999999</v>
+        <v>678.82</v>
       </c>
       <c r="U12">
-        <v>363.113</v>
+        <v>86.114999999999995</v>
       </c>
       <c r="V12">
-        <v>117.776</v>
+        <v>35.869999999999997</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-0.96399999999999997</v>
+        <v>2.9449999999999998</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-0.92500000000000004</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>70.236999999999995</v>
+        <v>-9.8350000000000009</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>92.906000000000006</v>
+        <v>5.399</v>
       </c>
       <c r="D13">
-        <v>1645.1320000000001</v>
+        <v>436.13299999999998</v>
       </c>
       <c r="E13">
-        <v>1666.9929999999999</v>
+        <v>442.09</v>
       </c>
       <c r="F13">
-        <v>273.053</v>
+        <v>55.008000000000003</v>
       </c>
       <c r="G13">
-        <v>2137.3870000000002</v>
+        <v>585.72699999999998</v>
       </c>
       <c r="H13">
-        <v>5494.9679999999998</v>
+        <v>1387.2660000000001</v>
       </c>
       <c r="I13">
-        <v>757.26700000000005</v>
+        <v>188.77199999999999</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>384.03500000000003</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1682,81 +1802,81 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>-0.22700000000000001</v>
+        <v>-1.8819999999999999</v>
       </c>
       <c r="N13">
-        <v>964.78700000000003</v>
+        <v>213.91</v>
       </c>
       <c r="O13">
-        <v>1470.7139999999999</v>
+        <v>700.46199999999999</v>
       </c>
       <c r="P13">
-        <v>2.6389999999999998</v>
+        <v>389.17899999999997</v>
       </c>
       <c r="Q13">
-        <v>-53.96</v>
+        <v>-8.2880000000000003</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>4024.2539999999999</v>
+        <v>686.80399999999997</v>
       </c>
       <c r="U13">
-        <v>309.15300000000002</v>
+        <v>77.826999999999998</v>
       </c>
       <c r="V13">
-        <v>83.191999999999993</v>
+        <v>3.5870000000000002</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-2.452</v>
+        <v>-0.17699999999999999</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-0.71299999999999997</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>92.906000000000006</v>
+        <v>5.399</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>166.697</v>
+        <v>-25.71</v>
       </c>
       <c r="D14">
-        <v>1817.623</v>
+        <v>431.28899999999999</v>
       </c>
       <c r="E14">
-        <v>1652.5930000000001</v>
+        <v>410.31700000000001</v>
       </c>
       <c r="F14">
-        <v>302.84300000000002</v>
+        <v>53.612000000000002</v>
       </c>
       <c r="G14">
-        <v>2313.3180000000002</v>
+        <v>676.09299999999996</v>
       </c>
       <c r="H14">
-        <v>5793.2449999999999</v>
+        <v>1466.4349999999999</v>
       </c>
       <c r="I14">
-        <v>412.601</v>
+        <v>76.436999999999998</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>500.55099999999999</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,161 +1888,161 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1042.4670000000001</v>
+        <v>199.39</v>
       </c>
       <c r="O14">
-        <v>1551.9259999999999</v>
+        <v>803.303</v>
       </c>
       <c r="P14">
-        <v>2.234</v>
+        <v>505.58499999999998</v>
       </c>
       <c r="Q14">
-        <v>179.624</v>
+        <v>101.79900000000001</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>20900</v>
+        <v>11217</v>
       </c>
       <c r="T14">
-        <v>4241.3190000000004</v>
+        <v>663.13199999999995</v>
       </c>
       <c r="U14">
-        <v>488.77699999999999</v>
+        <v>179.626</v>
       </c>
       <c r="V14">
-        <v>201.49199999999999</v>
+        <v>40.433999999999997</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-8.2780000000000005</v>
+        <v>72.962000000000003</v>
       </c>
       <c r="Y14">
-        <v>1.0529999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>209.66200000000001</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>166.697</v>
+        <v>-25.71</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>54.408000000000001</v>
+        <v>-11.694000000000001</v>
       </c>
       <c r="D15">
-        <v>1735.4480000000001</v>
+        <v>354.99700000000001</v>
       </c>
       <c r="E15">
-        <v>1776.8230000000001</v>
+        <v>374.74900000000002</v>
       </c>
       <c r="F15">
-        <v>256.05399999999997</v>
+        <v>26.724</v>
       </c>
       <c r="G15">
-        <v>2214.4569999999999</v>
+        <v>654.327</v>
       </c>
       <c r="H15">
-        <v>5826.62</v>
+        <v>1440.3589999999999</v>
       </c>
       <c r="I15">
-        <v>772.18499999999995</v>
+        <v>184.22200000000001</v>
       </c>
       <c r="J15">
-        <v>3.6230000000000002</v>
+        <v>489.46199999999999</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>-10.7</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>-1.9410000000000001</v>
       </c>
       <c r="N15">
-        <v>982.47500000000002</v>
+        <v>205.44300000000001</v>
       </c>
       <c r="O15">
-        <v>1509.944</v>
+        <v>786.31200000000001</v>
       </c>
       <c r="P15">
-        <v>6.2060000000000004</v>
+        <v>493.07400000000001</v>
       </c>
       <c r="Q15">
-        <v>-215.43700000000001</v>
+        <v>16.053999999999998</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>4316.6760000000004</v>
+        <v>654.04700000000003</v>
       </c>
       <c r="U15">
-        <v>273.33999999999997</v>
+        <v>195.68</v>
       </c>
       <c r="V15">
-        <v>-60.533000000000001</v>
+        <v>34.651000000000003</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-10.246</v>
+        <v>-10.813000000000001</v>
       </c>
       <c r="Y15">
-        <v>0.93300000000000005</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>0.25900000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>54.408000000000001</v>
+        <v>-11.694000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>81.081999999999994</v>
+        <v>-3.492</v>
       </c>
       <c r="D16">
-        <v>1838.2090000000001</v>
+        <v>389.19400000000002</v>
       </c>
       <c r="E16">
-        <v>1828.366</v>
+        <v>383.97399999999999</v>
       </c>
       <c r="F16">
-        <v>264.209</v>
+        <v>46.341000000000001</v>
       </c>
       <c r="G16">
-        <v>2242.9279999999999</v>
+        <v>660.17600000000004</v>
       </c>
       <c r="H16">
-        <v>5909.0590000000002</v>
+        <v>1444.674</v>
       </c>
       <c r="I16">
-        <v>734.596</v>
+        <v>183.84899999999999</v>
       </c>
       <c r="J16">
-        <v>4.1470000000000002</v>
+        <v>489.149</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1931,167 +2051,167 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>-334.21</v>
+        <v>-1.1160000000000001</v>
       </c>
       <c r="N16">
-        <v>967.19600000000003</v>
+        <v>203.947</v>
       </c>
       <c r="O16">
-        <v>1507.972</v>
+        <v>792.57</v>
       </c>
       <c r="P16">
-        <v>5.8170000000000002</v>
+        <v>492.072</v>
       </c>
       <c r="Q16">
-        <v>-84.391999999999996</v>
+        <v>1.637</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>4401.0870000000004</v>
+        <v>652.10400000000004</v>
       </c>
       <c r="U16">
-        <v>188.94800000000001</v>
+        <v>197.31700000000001</v>
       </c>
       <c r="V16">
-        <v>32.756</v>
+        <v>4.9809999999999999</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-44.808999999999997</v>
+        <v>-0.93300000000000005</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-1.0329999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>81.081999999999994</v>
+        <v>-3.492</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>94.647999999999996</v>
+        <v>4.1559999999999997</v>
       </c>
       <c r="D17">
-        <v>2145.9580000000001</v>
+        <v>463.077</v>
       </c>
       <c r="E17">
-        <v>2190.018</v>
+        <v>446.464</v>
       </c>
       <c r="F17">
-        <v>336.90300000000002</v>
+        <v>58.424999999999997</v>
       </c>
       <c r="G17">
-        <v>2536.4670000000001</v>
+        <v>717.34100000000001</v>
       </c>
       <c r="H17">
-        <v>6229.2889999999998</v>
+        <v>1474.1479999999999</v>
       </c>
       <c r="I17">
-        <v>881.76800000000003</v>
+        <v>216.59399999999999</v>
       </c>
       <c r="J17">
-        <v>82.132999999999996</v>
+        <v>470.30700000000002</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>-18.8</v>
       </c>
       <c r="M17">
-        <v>-317.53699999999998</v>
+        <v>-0.65200000000000002</v>
       </c>
       <c r="N17">
-        <v>1128.127</v>
+        <v>237.17599999999999</v>
       </c>
       <c r="O17">
-        <v>1740.6579999999999</v>
+        <v>814.755</v>
       </c>
       <c r="P17">
-        <v>84.872</v>
+        <v>474.39100000000002</v>
       </c>
       <c r="Q17">
-        <v>-44.789000000000001</v>
+        <v>20.420999999999999</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>4488.6310000000003</v>
+        <v>659.39300000000003</v>
       </c>
       <c r="U17">
-        <v>144.15899999999999</v>
+        <v>217.738</v>
       </c>
       <c r="V17">
-        <v>65.3</v>
+        <v>45.826000000000001</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>56.326000000000001</v>
+        <v>-17.460999999999999</v>
       </c>
       <c r="Y17">
-        <v>1.0529999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>-0.438</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>94.647999999999996</v>
+        <v>4.1559999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>66.575999999999993</v>
+        <v>1.8360000000000001</v>
       </c>
       <c r="D18">
-        <v>2027.614</v>
+        <v>419.24200000000002</v>
       </c>
       <c r="E18">
-        <v>2091.5569999999998</v>
+        <v>390.92</v>
       </c>
       <c r="F18">
-        <v>311.62799999999999</v>
+        <v>49.901000000000003</v>
       </c>
       <c r="G18">
-        <v>2495.7040000000002</v>
+        <v>700.03599999999994</v>
       </c>
       <c r="H18">
-        <v>6253.5829999999996</v>
+        <v>1459.9970000000001</v>
       </c>
       <c r="I18">
-        <v>477.37</v>
+        <v>84.147000000000006</v>
       </c>
       <c r="J18">
-        <v>72.489000000000004</v>
+        <v>464.363</v>
       </c>
       <c r="K18">
-        <v>5.056</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,244 +2220,244 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1106.3109999999999</v>
+        <v>221.05799999999999</v>
       </c>
       <c r="O18">
-        <v>1728.0429999999999</v>
+        <v>796.75</v>
       </c>
       <c r="P18">
-        <v>81.364999999999995</v>
+        <v>470.59899999999999</v>
       </c>
       <c r="Q18">
-        <v>46.356000000000002</v>
+        <v>47.822000000000003</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>24600</v>
+        <v>10820</v>
       </c>
       <c r="T18">
-        <v>4525.54</v>
+        <v>663.24699999999996</v>
       </c>
       <c r="U18">
-        <v>190.51499999999999</v>
+        <v>265.56</v>
       </c>
       <c r="V18">
-        <v>273.30099999999999</v>
+        <v>58.622</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>-59.618000000000002</v>
+        <v>-3.7949999999999999</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>4.2990000000000004</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>66.575999999999993</v>
+        <v>1.8360000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>53.484000000000002</v>
+        <v>-5.1280000000000001</v>
       </c>
       <c r="D19">
-        <v>1861.386</v>
+        <v>372.505</v>
       </c>
       <c r="E19">
-        <v>1983.865</v>
+        <v>381.935</v>
       </c>
       <c r="F19">
-        <v>237.90600000000001</v>
+        <v>36.091999999999999</v>
       </c>
       <c r="G19">
-        <v>2387.64</v>
+        <v>686.86699999999996</v>
       </c>
       <c r="H19">
-        <v>6140.8339999999998</v>
+        <v>1444.732</v>
       </c>
       <c r="I19">
-        <v>874.62699999999995</v>
+        <v>206.47399999999999</v>
       </c>
       <c r="J19">
-        <v>115.002</v>
+        <v>453.83600000000001</v>
       </c>
       <c r="K19">
-        <v>4.1340000000000003</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>-0.92200000000000004</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>-104.343</v>
+        <v>-11.526999999999999</v>
       </c>
       <c r="N19">
-        <v>1124.31</v>
+        <v>223.059</v>
       </c>
       <c r="O19">
-        <v>1830.0809999999999</v>
+        <v>784.74</v>
       </c>
       <c r="P19">
-        <v>124.44199999999999</v>
+        <v>459.19900000000001</v>
       </c>
       <c r="Q19">
-        <v>-54.981000000000002</v>
+        <v>-11.558</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>4310.7529999999997</v>
+        <v>659.99199999999996</v>
       </c>
       <c r="U19">
-        <v>135.53399999999999</v>
+        <v>254.00200000000001</v>
       </c>
       <c r="V19">
-        <v>189.227</v>
+        <v>9.9640000000000004</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-142.23500000000001</v>
+        <v>-9.8640000000000008</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-0.48699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>53.484000000000002</v>
+        <v>-5.1280000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>46.109000000000002</v>
+        <v>3.343</v>
       </c>
       <c r="D20">
-        <v>1872.34</v>
+        <v>439.28699999999998</v>
       </c>
       <c r="E20">
-        <v>1974.3440000000001</v>
+        <v>420.82900000000001</v>
       </c>
       <c r="F20">
-        <v>227.505</v>
+        <v>53.816000000000003</v>
       </c>
       <c r="G20">
-        <v>2315.567</v>
+        <v>708.62699999999995</v>
       </c>
       <c r="H20">
-        <v>6130.51</v>
+        <v>1469.1410000000001</v>
       </c>
       <c r="I20">
-        <v>872.25199999999995</v>
+        <v>218.99799999999999</v>
       </c>
       <c r="J20">
-        <v>214.255</v>
+        <v>459.06900000000002</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>-4.2480000000000002</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>-529.70000000000005</v>
+        <v>-12.292999999999999</v>
       </c>
       <c r="N20">
-        <v>1179.1479999999999</v>
+        <v>232.893</v>
       </c>
       <c r="O20">
-        <v>1920.7919999999999</v>
+        <v>804.66600000000005</v>
       </c>
       <c r="P20">
-        <v>216.893</v>
+        <v>460.90699999999998</v>
       </c>
       <c r="Q20">
-        <v>-70.106999999999999</v>
+        <v>-13.265000000000001</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>4209.7179999999998</v>
+        <v>664.47500000000002</v>
       </c>
       <c r="U20">
-        <v>65.427000000000007</v>
+        <v>240.73699999999999</v>
       </c>
       <c r="V20">
-        <v>117.556</v>
+        <v>-0.129</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-83.16</v>
+        <v>1.708</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>1.087</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>46.109000000000002</v>
+        <v>3.343</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>216.38800000000001</v>
+        <v>12.88</v>
       </c>
       <c r="D21">
-        <v>1939.4380000000001</v>
+        <v>523.34</v>
       </c>
       <c r="E21">
-        <v>2052.335</v>
+        <v>507.32799999999997</v>
       </c>
       <c r="F21">
-        <v>235.215</v>
+        <v>80.173000000000002</v>
       </c>
       <c r="G21">
-        <v>2362.6640000000002</v>
+        <v>797.98</v>
       </c>
       <c r="H21">
-        <v>5373.424</v>
+        <v>1543.972</v>
       </c>
       <c r="I21">
-        <v>936.13499999999999</v>
+        <v>244.815</v>
       </c>
       <c r="J21">
-        <v>342.97199999999998</v>
+        <v>458.97500000000002</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2346,84 +2466,84 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>-1343.463</v>
+        <v>-0.74399999999999999</v>
       </c>
       <c r="N21">
-        <v>1340.538</v>
+        <v>260.69900000000001</v>
       </c>
       <c r="O21">
-        <v>2169.5100000000002</v>
+        <v>862.28300000000002</v>
       </c>
       <c r="P21">
-        <v>350.55900000000003</v>
+        <v>460.56799999999998</v>
       </c>
       <c r="Q21">
-        <v>-16.233000000000001</v>
+        <v>-17.100999999999999</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>3203.9140000000002</v>
+        <v>681.68899999999996</v>
       </c>
       <c r="U21">
-        <v>49.194000000000003</v>
+        <v>223.636</v>
       </c>
       <c r="V21">
-        <v>110.209</v>
+        <v>-10.87</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-1034.502</v>
+        <v>1.518</v>
       </c>
       <c r="Y21">
-        <v>5.2370000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>-2.0110000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>216.38800000000001</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>-5.0739999999999998</v>
+        <v>18.462</v>
       </c>
       <c r="D22">
-        <v>1899.2719999999999</v>
+        <v>523.49400000000003</v>
       </c>
       <c r="E22">
-        <v>1938.8779999999999</v>
+        <v>469.637</v>
       </c>
       <c r="F22">
-        <v>223.03899999999999</v>
+        <v>86.667000000000002</v>
       </c>
       <c r="G22">
-        <v>2277.5189999999998</v>
+        <v>831.01</v>
       </c>
       <c r="H22">
-        <v>5213.5429999999997</v>
+        <v>1554.7850000000001</v>
       </c>
       <c r="I22">
-        <v>452.29500000000002</v>
+        <v>102.164</v>
       </c>
       <c r="J22">
-        <v>475.36399999999998</v>
+        <v>450.09100000000001</v>
       </c>
       <c r="K22">
-        <v>4.8289999999999997</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,161 +2552,161 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1203.7439999999999</v>
+        <v>258.07100000000003</v>
       </c>
       <c r="O22">
-        <v>2125.7280000000001</v>
+        <v>851.04700000000003</v>
       </c>
       <c r="P22">
-        <v>482.43099999999998</v>
+        <v>452.34300000000002</v>
       </c>
       <c r="Q22">
-        <v>79.576999999999998</v>
+        <v>80.631</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>24500</v>
+        <v>11104</v>
       </c>
       <c r="T22">
-        <v>3087.8150000000001</v>
+        <v>703.73800000000006</v>
       </c>
       <c r="U22">
-        <v>128.77099999999999</v>
+        <v>304.267</v>
       </c>
       <c r="V22">
-        <v>223.53299999999999</v>
+        <v>83.465000000000003</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>42.518999999999998</v>
+        <v>-6.5289999999999999</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-9.0009999999999994</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>-5.0739999999999998</v>
+        <v>18.462</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>20.495999999999999</v>
+        <v>7.8579999999999997</v>
       </c>
       <c r="D23">
-        <v>1713.7370000000001</v>
+        <v>496.49400000000003</v>
       </c>
       <c r="E23">
-        <v>1876.473</v>
+        <v>494.12099999999998</v>
       </c>
       <c r="F23">
-        <v>203.31299999999999</v>
+        <v>59.448</v>
       </c>
       <c r="G23">
-        <v>2248.3739999999998</v>
+        <v>835.76099999999997</v>
       </c>
       <c r="H23">
-        <v>5295.5190000000002</v>
+        <v>1560.492</v>
       </c>
       <c r="I23">
-        <v>788.01400000000001</v>
+        <v>236.33500000000001</v>
       </c>
       <c r="J23">
-        <v>402.59199999999998</v>
+        <v>447.04899999999998</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>-4.7110000000000003</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>-734.45799999999997</v>
+        <v>-4.53</v>
       </c>
       <c r="N23">
-        <v>1235.9110000000001</v>
+        <v>255.863</v>
       </c>
       <c r="O23">
-        <v>2122.29</v>
+        <v>847.04399999999998</v>
       </c>
       <c r="P23">
-        <v>408.21199999999999</v>
+        <v>449.291</v>
       </c>
       <c r="Q23">
-        <v>26.544</v>
+        <v>-80.019000000000005</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>3173.2289999999998</v>
+        <v>713.44799999999998</v>
       </c>
       <c r="U23">
-        <v>155.315</v>
+        <v>224.24799999999999</v>
       </c>
       <c r="V23">
-        <v>205.81100000000001</v>
+        <v>-9.4420000000000002</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-90.774000000000001</v>
+        <v>1.923</v>
       </c>
       <c r="Y23">
-        <v>1.466</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>-1.6479999999999999</v>
+        <v>-60.515000000000001</v>
       </c>
       <c r="AA23">
-        <v>20.495999999999999</v>
+        <v>7.8579999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>16.562000000000001</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1792.43</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>1851.03</v>
+        <v>495.78800000000001</v>
       </c>
       <c r="F24">
-        <v>200.21700000000001</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>2244.3870000000002</v>
+        <v>862.51499999999999</v>
       </c>
       <c r="H24">
-        <v>5297.1009999999997</v>
+        <v>1580.83</v>
       </c>
       <c r="I24">
-        <v>809.32100000000003</v>
+        <v>229.27</v>
       </c>
       <c r="J24">
-        <v>397.22</v>
+        <v>447.02300000000002</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2595,81 +2715,81 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>-697.36</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1208.0889999999999</v>
+        <v>248.57599999999999</v>
       </c>
       <c r="O24">
-        <v>2093.9270000000001</v>
+        <v>845.51099999999997</v>
       </c>
       <c r="P24">
-        <v>406.72199999999998</v>
+        <v>447.94499999999999</v>
       </c>
       <c r="Q24">
-        <v>7.0289999999999999</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>3203.174</v>
+        <v>735.31899999999996</v>
       </c>
       <c r="U24">
-        <v>162.34399999999999</v>
+        <v>37.356000000000002</v>
       </c>
       <c r="V24">
-        <v>67.81</v>
+        <v>0</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-1.7849999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>3.899</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>-2.66</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>16.562000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>73.742000000000004</v>
+        <v>22.422999999999998</v>
       </c>
       <c r="D25">
-        <v>2042.1859999999999</v>
+        <v>523.60599999999999</v>
       </c>
       <c r="E25">
-        <v>2062.9259999999999</v>
+        <v>505.899</v>
       </c>
       <c r="F25">
-        <v>302.58199999999999</v>
+        <v>82.742000000000004</v>
       </c>
       <c r="G25">
-        <v>2405.3510000000001</v>
+        <v>916.07799999999997</v>
       </c>
       <c r="H25">
-        <v>5476.4679999999998</v>
+        <v>1626.4259999999999</v>
       </c>
       <c r="I25">
-        <v>925.38699999999994</v>
+        <v>247.94</v>
       </c>
       <c r="J25">
-        <v>478.53100000000001</v>
+        <v>413.75</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2678,84 +2798,84 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>-626.27599999999995</v>
+        <v>-0.47399999999999998</v>
       </c>
       <c r="N25">
-        <v>1245.9079999999999</v>
+        <v>298.97800000000001</v>
       </c>
       <c r="O25">
-        <v>2199.8829999999998</v>
+        <v>867.875</v>
       </c>
       <c r="P25">
-        <v>487.46</v>
+        <v>449</v>
       </c>
       <c r="Q25">
-        <v>-44.978000000000002</v>
+        <v>29.919</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>3276.585</v>
+        <v>758.55100000000004</v>
       </c>
       <c r="U25">
-        <v>117.366</v>
+        <v>67.275000000000006</v>
       </c>
       <c r="V25">
-        <v>-68.528000000000006</v>
+        <v>46.776000000000003</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>82.1</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="Y25">
-        <v>3.8679999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>-1.1910000000000001</v>
+        <v>-12.275</v>
       </c>
       <c r="AA25">
-        <v>73.742000000000004</v>
+        <v>22.422999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>87.582999999999998</v>
+        <v>-30.457999999999998</v>
       </c>
       <c r="D26">
-        <v>2102.9659999999999</v>
+        <v>585.22900000000004</v>
       </c>
       <c r="E26">
-        <v>1973.423</v>
+        <v>543.87400000000002</v>
       </c>
       <c r="F26">
-        <v>307.68799999999999</v>
+        <v>91.364999999999995</v>
       </c>
       <c r="G26">
-        <v>2288.7449999999999</v>
+        <v>990.62900000000002</v>
       </c>
       <c r="H26">
-        <v>5354.0590000000002</v>
+        <v>1639.1569999999999</v>
       </c>
       <c r="I26">
-        <v>529.60799999999995</v>
+        <v>107.48399999999999</v>
       </c>
       <c r="J26">
-        <v>353.56200000000001</v>
+        <v>413.75</v>
       </c>
       <c r="K26">
-        <v>2.7349999999999999</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,161 +2884,161 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1205.2280000000001</v>
+        <v>334.45600000000002</v>
       </c>
       <c r="O26">
-        <v>2011.357</v>
+        <v>910.07399999999996</v>
       </c>
       <c r="P26">
-        <v>361.125</v>
+        <v>448.59500000000003</v>
       </c>
       <c r="Q26">
-        <v>-5.1829999999999998</v>
+        <v>316.41199999999998</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>28100</v>
+        <v>12021</v>
       </c>
       <c r="T26">
-        <v>3342.7020000000002</v>
+        <v>729.08299999999997</v>
       </c>
       <c r="U26">
-        <v>112.18300000000001</v>
+        <v>383.68700000000001</v>
       </c>
       <c r="V26">
-        <v>184.059</v>
+        <v>41.377000000000002</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-123.377</v>
+        <v>-0.253</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-5.8000000000000003E-2</v>
+        <v>284.44</v>
       </c>
       <c r="AA26">
-        <v>87.582999999999998</v>
+        <v>-30.457999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>48.267000000000003</v>
+        <v>31.204000000000001</v>
       </c>
       <c r="D27">
-        <v>2178.17</v>
+        <v>568.95899999999995</v>
       </c>
       <c r="E27">
-        <v>2145.7840000000001</v>
+        <v>507.90199999999999</v>
       </c>
       <c r="F27">
-        <v>266.18799999999999</v>
+        <v>77.572000000000003</v>
       </c>
       <c r="G27">
-        <v>2474.913</v>
+        <v>970.98900000000003</v>
       </c>
       <c r="H27">
-        <v>5543.0529999999999</v>
+        <v>1662.7660000000001</v>
       </c>
       <c r="I27">
-        <v>995.91399999999999</v>
+        <v>239.96199999999999</v>
       </c>
       <c r="J27">
-        <v>417.50200000000001</v>
+        <v>413.75</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>-2.7829999999999999</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>-632.97</v>
+        <v>-6.0650000000000004</v>
       </c>
       <c r="N27">
-        <v>1264.7380000000001</v>
+        <v>296.89</v>
       </c>
       <c r="O27">
-        <v>2144.2420000000002</v>
+        <v>887.33</v>
       </c>
       <c r="P27">
-        <v>423.3</v>
+        <v>447.21800000000002</v>
       </c>
       <c r="Q27">
-        <v>-6.8780000000000001</v>
+        <v>22.745000000000001</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>3398.8110000000001</v>
+        <v>775.43600000000004</v>
       </c>
       <c r="U27">
-        <v>106.514</v>
+        <v>406.43200000000002</v>
       </c>
       <c r="V27">
-        <v>-3.7050000000000001</v>
+        <v>64.049000000000007</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>44.311</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="Y27">
-        <v>1.8080000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>-5.4260000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>48.267000000000003</v>
+        <v>31.204000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>63.837000000000003</v>
+        <v>21.866</v>
       </c>
       <c r="D28">
-        <v>2200.3739999999998</v>
+        <v>552.22</v>
       </c>
       <c r="E28">
-        <v>2244.9929999999999</v>
+        <v>523.95899999999995</v>
       </c>
       <c r="F28">
-        <v>302.16500000000002</v>
+        <v>85.247</v>
       </c>
       <c r="G28">
-        <v>2617.1990000000001</v>
+        <v>987.005</v>
       </c>
       <c r="H28">
-        <v>5753.3440000000001</v>
+        <v>1682.43</v>
       </c>
       <c r="I28">
-        <v>969.654</v>
+        <v>220.339</v>
       </c>
       <c r="J28">
-        <v>481.76600000000002</v>
+        <v>413.75</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2927,81 +3047,81 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>-493.29700000000003</v>
+        <v>-0.46600000000000003</v>
       </c>
       <c r="N28">
-        <v>1286.0160000000001</v>
+        <v>278.20400000000001</v>
       </c>
       <c r="O28">
-        <v>2244.0129999999999</v>
+        <v>873.61900000000003</v>
       </c>
       <c r="P28">
-        <v>485.01299999999998</v>
+        <v>447.13</v>
       </c>
       <c r="Q28">
-        <v>-4.9240000000000004</v>
+        <v>-0.64</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>3509.3310000000001</v>
+        <v>808.81100000000004</v>
       </c>
       <c r="U28">
-        <v>99.564999999999998</v>
+        <v>405.79199999999997</v>
       </c>
       <c r="V28">
-        <v>4.8339999999999996</v>
+        <v>8.4290000000000003</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>55.59</v>
+        <v>6.181</v>
       </c>
       <c r="Y28">
-        <v>1.8720000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>-8.6140000000000008</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>63.837000000000003</v>
+        <v>21.866</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>89.313000000000002</v>
+        <v>49.320999999999998</v>
       </c>
       <c r="D29">
-        <v>2609.3069999999998</v>
+        <v>655.86500000000001</v>
       </c>
       <c r="E29">
-        <v>2623.0210000000002</v>
+        <v>784.48800000000006</v>
       </c>
       <c r="F29">
-        <v>350.63099999999997</v>
+        <v>115.053</v>
       </c>
       <c r="G29">
-        <v>2948.239</v>
+        <v>1238.462</v>
       </c>
       <c r="H29">
-        <v>6640.2460000000001</v>
+        <v>3274.674</v>
       </c>
       <c r="I29">
-        <v>1210.9449999999999</v>
+        <v>392.34800000000001</v>
       </c>
       <c r="J29">
-        <v>758.29899999999998</v>
+        <v>413.74200000000002</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3010,81 +3130,81 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>-541.59799999999996</v>
+        <v>-94.141999999999996</v>
       </c>
       <c r="N29">
-        <v>1592.492</v>
+        <v>437.84100000000001</v>
       </c>
       <c r="O29">
-        <v>2910.0149999999999</v>
+        <v>1139.963</v>
       </c>
       <c r="P29">
-        <v>763.01199999999994</v>
+        <v>413.89299999999997</v>
       </c>
       <c r="Q29">
-        <v>-7.3739999999999997</v>
+        <v>-34.322000000000003</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>3730.2310000000002</v>
+        <v>2134.7109999999998</v>
       </c>
       <c r="U29">
-        <v>91.531999999999996</v>
+        <v>371.47</v>
       </c>
       <c r="V29">
-        <v>173.56700000000001</v>
+        <v>42.78</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>270.13299999999998</v>
+        <v>-90.909000000000006</v>
       </c>
       <c r="Y29">
-        <v>1.909</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>-39.881</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>89.313000000000002</v>
+        <v>49.320999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>113.56100000000001</v>
+        <v>33.587000000000003</v>
       </c>
       <c r="D30">
-        <v>2478.627</v>
+        <v>878.99199999999996</v>
       </c>
       <c r="E30">
-        <v>2482.3690000000001</v>
+        <v>792.096</v>
       </c>
       <c r="F30">
-        <v>322.87599999999998</v>
+        <v>150.875</v>
       </c>
       <c r="G30">
-        <v>2869.9070000000002</v>
+        <v>1304.7619999999999</v>
       </c>
       <c r="H30">
-        <v>6480.1540000000005</v>
+        <v>3387.8319999999999</v>
       </c>
       <c r="I30">
-        <v>632.93100000000004</v>
+        <v>203.774</v>
       </c>
       <c r="J30">
-        <v>670.721</v>
+        <v>143.75</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1492.067</v>
+        <v>757.42899999999997</v>
       </c>
       <c r="O30">
-        <v>2684.5250000000001</v>
+        <v>1202.6890000000001</v>
       </c>
       <c r="P30">
-        <v>671.94100000000003</v>
+        <v>414.76100000000002</v>
       </c>
       <c r="Q30">
-        <v>48.540999999999997</v>
+        <v>35.610999999999997</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>32800</v>
+        <v>15261</v>
       </c>
       <c r="T30">
-        <v>3795.6289999999999</v>
+        <v>2185.143</v>
       </c>
       <c r="U30">
-        <v>138.285</v>
+        <v>407.08100000000002</v>
       </c>
       <c r="V30">
-        <v>197.19499999999999</v>
+        <v>103.982</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-142.27000000000001</v>
+        <v>4.8179999999999996</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>63.182000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>113.56100000000001</v>
+        <v>33.587000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>37.613999999999997</v>
+        <v>21.471</v>
       </c>
       <c r="D31">
-        <v>2417.576</v>
+        <v>844.44200000000001</v>
       </c>
       <c r="E31">
-        <v>2586.8719999999998</v>
+        <v>830.495</v>
       </c>
       <c r="F31">
-        <v>301.048</v>
+        <v>123.877</v>
       </c>
       <c r="G31">
-        <v>2957.069</v>
+        <v>1307.1369999999999</v>
       </c>
       <c r="H31">
-        <v>6653.402</v>
+        <v>3398.0590000000002</v>
       </c>
       <c r="I31">
-        <v>1040.6610000000001</v>
+        <v>411.06200000000001</v>
       </c>
       <c r="J31">
-        <v>881.82299999999998</v>
+        <v>143.75</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,250 +3296,250 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-760.71500000000003</v>
+        <v>-0.94399999999999995</v>
       </c>
       <c r="N31">
-        <v>1549.6389999999999</v>
+        <v>740.25</v>
       </c>
       <c r="O31">
-        <v>3006.4369999999999</v>
+        <v>1188.08</v>
       </c>
       <c r="P31">
-        <v>885.57</v>
+        <v>414.46499999999997</v>
       </c>
       <c r="Q31">
-        <v>-38.494999999999997</v>
+        <v>-34.887</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>3646.9650000000001</v>
+        <v>2209.9789999999998</v>
       </c>
       <c r="U31">
-        <v>101.736</v>
+        <v>372.19400000000002</v>
       </c>
       <c r="V31">
-        <v>25.992999999999999</v>
+        <v>15.186</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>26.719000000000001</v>
+        <v>2.3370000000000002</v>
       </c>
       <c r="Y31">
-        <v>0.97199999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>-0.13200000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>37.613999999999997</v>
+        <v>21.471</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>74.364999999999995</v>
+        <v>37.667999999999999</v>
       </c>
       <c r="D32">
-        <v>2656.348</v>
+        <v>960.88199999999995</v>
       </c>
       <c r="E32">
-        <v>2659.8220000000001</v>
+        <v>903.226</v>
       </c>
       <c r="F32">
-        <v>333.37099999999998</v>
+        <v>158.69</v>
       </c>
       <c r="G32">
-        <v>3074.8359999999998</v>
+        <v>1317.6210000000001</v>
       </c>
       <c r="H32">
-        <v>6790.3819999999996</v>
+        <v>3490.4940000000001</v>
       </c>
       <c r="I32">
-        <v>1167.5830000000001</v>
+        <v>435.72399999999999</v>
       </c>
       <c r="J32">
-        <v>839.77800000000002</v>
+        <v>143.75</v>
       </c>
       <c r="K32">
-        <v>12.922000000000001</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>-1101.9459999999999</v>
+        <v>-0.65400000000000003</v>
       </c>
       <c r="N32">
-        <v>1690.5650000000001</v>
+        <v>754.51</v>
       </c>
       <c r="O32">
-        <v>3096.9169999999999</v>
+        <v>1212.6510000000001</v>
       </c>
       <c r="P32">
-        <v>856.24099999999999</v>
+        <v>413.84800000000001</v>
       </c>
       <c r="Q32">
-        <v>19.457000000000001</v>
+        <v>-67.403000000000006</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>3693.4650000000001</v>
+        <v>2277.8429999999998</v>
       </c>
       <c r="U32">
-        <v>120.357</v>
+        <v>304.791</v>
       </c>
       <c r="V32">
-        <v>156.52000000000001</v>
+        <v>18.116</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-44.822000000000003</v>
+        <v>4.6550000000000002</v>
       </c>
       <c r="Y32">
-        <v>0.96399999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>-0.65300000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>74.364999999999995</v>
+        <v>37.667999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>124.551</v>
+        <v>51.936999999999998</v>
       </c>
       <c r="D33">
-        <v>2985.2809999999999</v>
+        <v>1053.355</v>
       </c>
       <c r="E33">
-        <v>2971.614</v>
+        <v>1030.423</v>
       </c>
       <c r="F33">
-        <v>425.83</v>
+        <v>185.566</v>
       </c>
       <c r="G33">
-        <v>3378.1219999999998</v>
+        <v>1382.7819999999999</v>
       </c>
       <c r="H33">
-        <v>7191.174</v>
+        <v>3562.569</v>
       </c>
       <c r="I33">
-        <v>1318.3820000000001</v>
+        <v>459.98899999999998</v>
       </c>
       <c r="J33">
-        <v>951.90099999999995</v>
+        <v>143.75</v>
       </c>
       <c r="K33">
-        <v>20.344000000000001</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>-743.49800000000005</v>
+        <v>-4.5999999999999999E-2</v>
       </c>
       <c r="N33">
-        <v>1816.184</v>
+        <v>780.35</v>
       </c>
       <c r="O33">
-        <v>3366.94</v>
+        <v>1223.097</v>
       </c>
       <c r="P33">
-        <v>975.697</v>
+        <v>412.59699999999998</v>
       </c>
       <c r="Q33">
-        <v>-6.5629999999999997</v>
+        <v>-38.362000000000002</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>3824.2339999999999</v>
+        <v>2339.4720000000002</v>
       </c>
       <c r="U33">
-        <v>113.524</v>
+        <v>266.42899999999997</v>
       </c>
       <c r="V33">
-        <v>39.103999999999999</v>
+        <v>16.815999999999999</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>90.962999999999994</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="Y33">
-        <v>0.98499999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>-19.390999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>124.551</v>
+        <v>51.936999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>56.816000000000003</v>
+        <v>46.488999999999997</v>
       </c>
       <c r="D34">
-        <v>3112.2179999999998</v>
+        <v>921.53399999999999</v>
       </c>
       <c r="E34">
-        <v>2931.6280000000002</v>
+        <v>849.63</v>
       </c>
       <c r="F34">
-        <v>419.71499999999997</v>
+        <v>166.733</v>
       </c>
       <c r="G34">
-        <v>3326.1039999999998</v>
+        <v>1385.4069999999999</v>
       </c>
       <c r="H34">
-        <v>7075.7870000000003</v>
+        <v>3558.1590000000001</v>
       </c>
       <c r="I34">
-        <v>786.54600000000005</v>
+        <v>179.59399999999999</v>
       </c>
       <c r="J34">
-        <v>1039.598</v>
+        <v>122.27500000000001</v>
       </c>
       <c r="K34">
-        <v>33.421999999999997</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,330 +3548,330 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1806.127</v>
+        <v>451.798</v>
       </c>
       <c r="O34">
-        <v>3470.3339999999998</v>
+        <v>875.78499999999997</v>
       </c>
       <c r="P34">
-        <v>1106.1780000000001</v>
+        <v>123.43</v>
       </c>
       <c r="Q34">
-        <v>-34.917999999999999</v>
+        <v>171.47200000000001</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>39200</v>
+        <v>14751</v>
       </c>
       <c r="T34">
-        <v>3605.453</v>
+        <v>2682.3739999999998</v>
       </c>
       <c r="U34">
-        <v>78.686999999999998</v>
+        <v>437.90100000000001</v>
       </c>
       <c r="V34">
-        <v>137.172</v>
+        <v>192.38200000000001</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-89.43</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="Y34">
-        <v>0.93400000000000005</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>-12.028</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>56.816000000000003</v>
+        <v>46.488999999999997</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>120.488</v>
+        <v>21.353999999999999</v>
       </c>
       <c r="D35">
-        <v>2807.259</v>
+        <v>738.53</v>
       </c>
       <c r="E35">
-        <v>3153.913</v>
+        <v>744.05799999999999</v>
       </c>
       <c r="F35">
-        <v>363.98099999999999</v>
+        <v>117.131</v>
       </c>
       <c r="G35">
-        <v>3554.5439999999999</v>
+        <v>1341.386</v>
       </c>
       <c r="H35">
-        <v>7652.5159999999996</v>
+        <v>3531.48</v>
       </c>
       <c r="I35">
-        <v>1209.9269999999999</v>
+        <v>343.28300000000002</v>
       </c>
       <c r="J35">
-        <v>1344.421</v>
+        <v>123.327</v>
       </c>
       <c r="K35">
-        <v>11.263999999999999</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>-23.22</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>-1347.703</v>
+        <v>-1.137</v>
       </c>
       <c r="N35">
-        <v>1778.7370000000001</v>
+        <v>404.80200000000002</v>
       </c>
       <c r="O35">
-        <v>3927.4589999999998</v>
+        <v>839.47799999999995</v>
       </c>
       <c r="P35">
-        <v>1675.1120000000001</v>
+        <v>125.283</v>
       </c>
       <c r="Q35">
-        <v>6.2359999999999998</v>
+        <v>70.908000000000001</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>3725.0569999999998</v>
+        <v>2692.002</v>
       </c>
       <c r="U35">
-        <v>85.423000000000002</v>
+        <v>508.80900000000003</v>
       </c>
       <c r="V35">
-        <v>-82.75</v>
+        <v>111.202</v>
       </c>
       <c r="W35">
-        <v>-5.7519999999999998</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>236.26</v>
+        <v>-0.71199999999999997</v>
       </c>
       <c r="Y35">
-        <v>194.053</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-37.802999999999997</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>120.488</v>
+        <v>21.353999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>27.344000000000001</v>
+        <v>33.427</v>
       </c>
       <c r="D36">
-        <v>2839.1990000000001</v>
+        <v>813.37900000000002</v>
       </c>
       <c r="E36">
-        <v>3315.6680000000001</v>
+        <v>772.71799999999996</v>
       </c>
       <c r="F36">
-        <v>319.505</v>
+        <v>137.78200000000001</v>
       </c>
       <c r="G36">
-        <v>3751.9319999999998</v>
+        <v>1385.8920000000001</v>
       </c>
       <c r="H36">
-        <v>8021.817</v>
+        <v>3599.502</v>
       </c>
       <c r="I36">
-        <v>1260.2929999999999</v>
+        <v>364.51400000000001</v>
       </c>
       <c r="J36">
-        <v>1516.5889999999999</v>
+        <v>124.4</v>
       </c>
       <c r="K36">
-        <v>18.814</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36">
-        <v>-901.61800000000005</v>
+        <v>-2.11</v>
       </c>
       <c r="N36">
-        <v>1906.2329999999999</v>
+        <v>430.72199999999998</v>
       </c>
       <c r="O36">
-        <v>4245.558</v>
+        <v>866.024</v>
       </c>
       <c r="P36">
-        <v>1855.095</v>
+        <v>124.402</v>
       </c>
       <c r="Q36">
-        <v>-11.375</v>
+        <v>15.547000000000001</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>3776.259</v>
+        <v>2733.4780000000001</v>
       </c>
       <c r="U36">
-        <v>73.355999999999995</v>
+        <v>524.35599999999999</v>
       </c>
       <c r="V36">
-        <v>-108.664</v>
+        <v>59.427999999999997</v>
       </c>
       <c r="W36">
-        <v>-5.83</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>165.37799999999999</v>
+        <v>-2.0059999999999998</v>
       </c>
       <c r="Y36">
-        <v>192.88</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-0.127</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>27.344000000000001</v>
+        <v>33.427</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>136.06800000000001</v>
+        <v>63.436</v>
       </c>
       <c r="D37">
-        <v>3352.895</v>
+        <v>780.79399999999998</v>
       </c>
       <c r="E37">
-        <v>3841.2429999999999</v>
+        <v>725.63</v>
       </c>
       <c r="F37">
-        <v>473.44499999999999</v>
+        <v>147.62799999999999</v>
       </c>
       <c r="G37">
-        <v>4301.9269999999997</v>
+        <v>1402.96</v>
       </c>
       <c r="H37">
-        <v>8865.0930000000008</v>
+        <v>3634.105</v>
       </c>
       <c r="I37">
-        <v>1534.8969999999999</v>
+        <v>338.48599999999999</v>
       </c>
       <c r="J37">
-        <v>1809.884</v>
+        <v>125.49299999999999</v>
       </c>
       <c r="K37">
-        <v>7.6219999999999999</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>-11.170999999999999</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>-1791.28</v>
+        <v>-0.129</v>
       </c>
       <c r="N37">
-        <v>2357.5230000000001</v>
+        <v>390.08800000000002</v>
       </c>
       <c r="O37">
-        <v>4955.8860000000004</v>
+        <v>810.36300000000006</v>
       </c>
       <c r="P37">
-        <v>2177.6329999999998</v>
+        <v>125.53</v>
       </c>
       <c r="Q37">
-        <v>6.3940000000000001</v>
+        <v>59.682000000000002</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>3909.2069999999999</v>
+        <v>2823.7420000000002</v>
       </c>
       <c r="U37">
-        <v>80.043999999999997</v>
+        <v>584.03800000000001</v>
       </c>
       <c r="V37">
-        <v>91.167000000000002</v>
+        <v>107.959</v>
       </c>
       <c r="W37">
-        <v>-5.8029999999999999</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>307.11099999999999</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="Y37">
-        <v>198.49199999999999</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-1.0649999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>136.06800000000001</v>
+        <v>63.436</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>118.14400000000001</v>
+        <v>43.945</v>
       </c>
       <c r="D38">
-        <v>3112.8</v>
+        <v>985.423</v>
       </c>
       <c r="E38">
-        <v>3349.1790000000001</v>
+        <v>749.49900000000002</v>
       </c>
       <c r="F38">
-        <v>443.32100000000003</v>
+        <v>190.947</v>
       </c>
       <c r="G38">
-        <v>3830.9859999999999</v>
+        <v>1582.7919999999999</v>
       </c>
       <c r="H38">
-        <v>8331.6820000000007</v>
+        <v>4116.9539999999997</v>
       </c>
       <c r="I38">
-        <v>798.71799999999996</v>
+        <v>173.30099999999999</v>
       </c>
       <c r="J38">
-        <v>1291.6780000000001</v>
+        <v>126.608</v>
       </c>
       <c r="K38">
-        <v>6.5419999999999998</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,377 +3880,3697 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2263.049</v>
+        <v>495.68799999999999</v>
       </c>
       <c r="O38">
-        <v>4277.8509999999997</v>
+        <v>1006.393</v>
       </c>
       <c r="P38">
-        <v>1656.06</v>
+        <v>130.03399999999999</v>
       </c>
       <c r="Q38">
-        <v>85.233999999999995</v>
+        <v>115.59099999999999</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>40300</v>
+        <v>14673</v>
       </c>
       <c r="T38">
-        <v>4053.8310000000001</v>
+        <v>3110.5610000000001</v>
       </c>
       <c r="U38">
-        <v>164.798</v>
+        <v>699.62900000000002</v>
       </c>
       <c r="V38">
-        <v>626.798</v>
+        <v>98.308999999999997</v>
       </c>
       <c r="W38">
-        <v>-5.851</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-531.06200000000001</v>
+        <v>3.5859999999999999</v>
       </c>
       <c r="Y38">
-        <v>197.03800000000001</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>38.529000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>118.14400000000001</v>
+        <v>43.945</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>38.686</v>
+        <v>23.744</v>
       </c>
       <c r="D39">
-        <v>2764.0949999999998</v>
+        <v>748.28300000000002</v>
       </c>
       <c r="E39">
-        <v>3162.4650000000001</v>
+        <v>729.26</v>
       </c>
       <c r="F39">
-        <v>332.19600000000003</v>
+        <v>129.142</v>
       </c>
       <c r="G39">
-        <v>3758.6</v>
+        <v>1505.4839999999999</v>
       </c>
       <c r="H39">
-        <v>8228.9439999999995</v>
+        <v>4049.152</v>
       </c>
       <c r="I39">
-        <v>1256.46</v>
+        <v>334.92500000000001</v>
       </c>
       <c r="J39">
-        <v>1588.2570000000001</v>
+        <v>127.745</v>
       </c>
       <c r="K39">
-        <v>3.3780000000000001</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>-2.7989999999999999</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>-1171.5050000000001</v>
+        <v>-3.294</v>
       </c>
       <c r="N39">
-        <v>2115.9090000000001</v>
+        <v>402.45699999999999</v>
       </c>
       <c r="O39">
-        <v>4433.7659999999996</v>
+        <v>911.11800000000005</v>
       </c>
       <c r="P39">
-        <v>1954.95</v>
+        <v>128.10900000000001</v>
       </c>
       <c r="Q39">
-        <v>211.893</v>
+        <v>-39.805</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>3795.1779999999999</v>
+        <v>3138.0340000000001</v>
       </c>
       <c r="U39">
-        <v>377.20499999999998</v>
+        <v>659.82399999999996</v>
       </c>
       <c r="V39">
-        <v>227.54900000000001</v>
+        <v>3.6259999999999999</v>
       </c>
       <c r="W39">
-        <v>-7.3840000000000003</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>73.926000000000002</v>
+        <v>-1.135</v>
       </c>
       <c r="Y39">
-        <v>201.87799999999999</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-5.6920000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>38.686</v>
+        <v>23.744</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>73.945999999999998</v>
+        <v>32.985999999999997</v>
       </c>
       <c r="D40">
-        <v>2506.2310000000002</v>
+        <v>870.50199999999995</v>
       </c>
       <c r="E40">
-        <v>2860.0889999999999</v>
+        <v>799.77599999999995</v>
       </c>
       <c r="F40">
-        <v>355.26400000000001</v>
+        <v>156.03700000000001</v>
       </c>
       <c r="G40">
-        <v>3644.7550000000001</v>
+        <v>1425.373</v>
       </c>
       <c r="H40">
-        <v>8089.63</v>
+        <v>3960.3020000000001</v>
       </c>
       <c r="I40">
-        <v>1221.51</v>
+        <v>376.81799999999998</v>
       </c>
       <c r="J40">
-        <v>1314.645</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>1.7609999999999999</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>-1.62</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>-783.524</v>
+        <v>-143.81200000000001</v>
       </c>
       <c r="N40">
-        <v>2093.3589999999999</v>
+        <v>420.35500000000002</v>
       </c>
       <c r="O40">
-        <v>4171.6279999999997</v>
+        <v>793.58399999999995</v>
       </c>
       <c r="P40">
-        <v>1670.0509999999999</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="Q40">
-        <v>151.215</v>
+        <v>-140.006</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>3918.002</v>
+        <v>3166.7179999999998</v>
       </c>
       <c r="U40">
-        <v>530.66999999999996</v>
+        <v>519.81799999999998</v>
       </c>
       <c r="V40">
-        <v>497.47899999999998</v>
+        <v>28.539000000000001</v>
       </c>
       <c r="W40">
-        <v>-7.16</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>-310.63600000000002</v>
+        <v>-143.56399999999999</v>
       </c>
       <c r="Y40">
-        <v>193.21100000000001</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-3.036</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>73.945999999999998</v>
+        <v>32.985999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>162.91300000000001</v>
+        <v>62.78</v>
       </c>
       <c r="D41">
-        <v>3020.1610000000001</v>
+        <v>1206.0070000000001</v>
       </c>
       <c r="E41">
-        <v>3228.7510000000002</v>
+        <v>1053.6120000000001</v>
       </c>
       <c r="F41">
-        <v>507.51400000000001</v>
+        <v>189.994</v>
       </c>
       <c r="G41">
-        <v>3677.0079999999998</v>
+        <v>1621.2619999999999</v>
       </c>
       <c r="H41">
-        <v>8325.4869999999992</v>
+        <v>4130.9620000000004</v>
       </c>
       <c r="I41">
-        <v>1439.376</v>
+        <v>440.37700000000001</v>
       </c>
       <c r="J41">
-        <v>1201.5139999999999</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>2.887</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>-1.7609999999999999</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>-1649.2660000000001</v>
+        <v>-4.1000000000000002E-2</v>
       </c>
       <c r="N41">
-        <v>2178.2730000000001</v>
+        <v>504.39699999999999</v>
       </c>
       <c r="O41">
-        <v>4169.9210000000003</v>
+        <v>892.88699999999994</v>
       </c>
       <c r="P41">
-        <v>1484.8109999999999</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="Q41">
-        <v>-313.75099999999998</v>
+        <v>-78.570999999999998</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>4155.5659999999998</v>
+        <v>3238.0749999999998</v>
       </c>
       <c r="U41">
-        <v>216.935</v>
+        <v>441.24700000000001</v>
       </c>
       <c r="V41">
-        <v>114.85899999999999</v>
+        <v>-54.707000000000001</v>
       </c>
       <c r="W41">
-        <v>-7.0010000000000003</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>-198.50399999999999</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="Y41">
-        <v>185.91399999999999</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>162.91300000000001</v>
+        <v>62.78</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>33.665999999999997</v>
+      </c>
+      <c r="D42">
+        <v>1106.4259999999999</v>
+      </c>
+      <c r="E42">
+        <v>901.86199999999997</v>
+      </c>
+      <c r="F42">
+        <v>159.25</v>
+      </c>
+      <c r="G42">
+        <v>1596.364</v>
+      </c>
+      <c r="H42">
+        <v>4341.2120000000004</v>
+      </c>
+      <c r="I42">
+        <v>222.881</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>500.39499999999998</v>
+      </c>
+      <c r="O42">
+        <v>974.29300000000001</v>
+      </c>
+      <c r="P42">
+        <v>1.327</v>
+      </c>
+      <c r="Q42">
+        <v>97.974000000000004</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>13751</v>
+      </c>
+      <c r="T42">
+        <v>3366.9189999999999</v>
+      </c>
+      <c r="U42">
+        <v>539.221</v>
+      </c>
+      <c r="V42">
+        <v>261.58999999999997</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-0.98399999999999999</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>33.665999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>-17.594000000000001</v>
+      </c>
+      <c r="D43">
+        <v>848.95899999999995</v>
+      </c>
+      <c r="E43">
+        <v>878.06500000000005</v>
+      </c>
+      <c r="F43">
+        <v>70.891000000000005</v>
+      </c>
+      <c r="G43">
+        <v>1562.3240000000001</v>
+      </c>
+      <c r="H43">
+        <v>4324.5619999999999</v>
+      </c>
+      <c r="I43">
+        <v>394.84899999999999</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-1.9910000000000001</v>
+      </c>
+      <c r="N43">
+        <v>482.71100000000001</v>
+      </c>
+      <c r="O43">
+        <v>964.78399999999999</v>
+      </c>
+      <c r="P43">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="Q43">
+        <v>-36.201999999999998</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>3359.7779999999998</v>
+      </c>
+      <c r="U43">
+        <v>503.01900000000001</v>
+      </c>
+      <c r="V43">
+        <v>-4.1879999999999997</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>2.3239999999999998</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>-17.594000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>31.800999999999998</v>
+      </c>
+      <c r="D44">
+        <v>1010.914</v>
+      </c>
+      <c r="E44">
+        <v>922.36099999999999</v>
+      </c>
+      <c r="F44">
+        <v>154.09</v>
+      </c>
+      <c r="G44">
+        <v>1476.58</v>
+      </c>
+      <c r="H44">
+        <v>4292.8549999999996</v>
+      </c>
+      <c r="I44">
+        <v>410.262</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>-2.1850000000000001</v>
+      </c>
+      <c r="N44">
+        <v>503.96</v>
+      </c>
+      <c r="O44">
+        <v>989.57399999999996</v>
+      </c>
+      <c r="P44">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="Q44">
+        <v>-122.637</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>3303.2809999999999</v>
+      </c>
+      <c r="U44">
+        <v>380.38200000000001</v>
+      </c>
+      <c r="V44">
+        <v>56.158000000000001</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-95.387</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-35</v>
+      </c>
+      <c r="AA44">
+        <v>31.800999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>51.994</v>
+      </c>
+      <c r="D45">
+        <v>1250.819</v>
+      </c>
+      <c r="E45">
+        <v>1142.2840000000001</v>
+      </c>
+      <c r="F45">
+        <v>194.69</v>
+      </c>
+      <c r="G45">
+        <v>1576.877</v>
+      </c>
+      <c r="H45">
+        <v>4463.9549999999999</v>
+      </c>
+      <c r="I45">
+        <v>527.94000000000005</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>-1.47</v>
+      </c>
+      <c r="N45">
+        <v>651.70799999999997</v>
+      </c>
+      <c r="O45">
+        <v>1160.9580000000001</v>
+      </c>
+      <c r="P45">
+        <v>0.1</v>
+      </c>
+      <c r="Q45">
+        <v>-122.544</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>3302.9969999999998</v>
+      </c>
+      <c r="U45">
+        <v>257.83800000000002</v>
+      </c>
+      <c r="V45">
+        <v>40.784999999999997</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-60.481000000000002</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-4</v>
+      </c>
+      <c r="AA45">
+        <v>51.994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1149.0540000000001</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>1765.154</v>
+      </c>
+      <c r="H46">
+        <v>4699.1139999999996</v>
+      </c>
+      <c r="I46">
+        <v>316.52499999999998</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>781.07600000000002</v>
+      </c>
+      <c r="O46">
+        <v>1309.8510000000001</v>
+      </c>
+      <c r="P46">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>17500</v>
+      </c>
+      <c r="T46">
+        <v>3389.2629999999999</v>
+      </c>
+      <c r="U46">
+        <v>315.34899999999999</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>45.707000000000001</v>
+      </c>
+      <c r="D47">
+        <v>1328.7639999999999</v>
+      </c>
+      <c r="E47">
+        <v>1422.3920000000001</v>
+      </c>
+      <c r="F47">
+        <v>186.06399999999999</v>
+      </c>
+      <c r="G47">
+        <v>1770.1130000000001</v>
+      </c>
+      <c r="H47">
+        <v>4755.3339999999998</v>
+      </c>
+      <c r="I47">
+        <v>580.83399999999995</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>762.65599999999995</v>
+      </c>
+      <c r="O47">
+        <v>1284.6199999999999</v>
+      </c>
+      <c r="P47">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="Q47">
+        <v>-137.982</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>3470.7139999999999</v>
+      </c>
+      <c r="U47">
+        <v>177.36699999999999</v>
+      </c>
+      <c r="V47">
+        <v>-60.218000000000004</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-4.9059999999999997</v>
+      </c>
+      <c r="AA47">
+        <v>45.707000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>65.537999999999997</v>
+      </c>
+      <c r="D48">
+        <v>1386.162</v>
+      </c>
+      <c r="E48">
+        <v>1491.577</v>
+      </c>
+      <c r="F48">
+        <v>212.904</v>
+      </c>
+      <c r="G48">
+        <v>1824.501</v>
+      </c>
+      <c r="H48">
+        <v>4897.3029999999999</v>
+      </c>
+      <c r="I48">
+        <v>635.46900000000005</v>
+      </c>
+      <c r="J48">
+        <v>39</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>-310.65300000000002</v>
+      </c>
+      <c r="N48">
+        <v>783.971</v>
+      </c>
+      <c r="O48">
+        <v>1351.1489999999999</v>
+      </c>
+      <c r="P48">
+        <v>39.033000000000001</v>
+      </c>
+      <c r="Q48">
+        <v>-4.4989999999999997</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>3546.154</v>
+      </c>
+      <c r="U48">
+        <v>172.86799999999999</v>
+      </c>
+      <c r="V48">
+        <v>86.299000000000007</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>32.796999999999997</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-48.844000000000001</v>
+      </c>
+      <c r="AA48">
+        <v>65.537999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>96.397999999999996</v>
+      </c>
+      <c r="D49">
+        <v>1532.001</v>
+      </c>
+      <c r="E49">
+        <v>1819.979</v>
+      </c>
+      <c r="F49">
+        <v>252</v>
+      </c>
+      <c r="G49">
+        <v>2136.4270000000001</v>
+      </c>
+      <c r="H49">
+        <v>5255.27</v>
+      </c>
+      <c r="I49">
+        <v>771.50599999999997</v>
+      </c>
+      <c r="J49">
+        <v>125</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>-339.55399999999997</v>
+      </c>
+      <c r="N49">
+        <v>925.35199999999998</v>
+      </c>
+      <c r="O49">
+        <v>1585.0260000000001</v>
+      </c>
+      <c r="P49">
+        <v>125.01900000000001</v>
+      </c>
+      <c r="Q49">
+        <v>-44.658999999999999</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>3670.2440000000001</v>
+      </c>
+      <c r="U49">
+        <v>128.21</v>
+      </c>
+      <c r="V49">
+        <v>-59.771000000000001</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>79.835999999999999</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>96.397999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>98.986000000000004</v>
+      </c>
+      <c r="D50">
+        <v>1673.3420000000001</v>
+      </c>
+      <c r="E50">
+        <v>1670.8579999999999</v>
+      </c>
+      <c r="F50">
+        <v>286.73899999999998</v>
+      </c>
+      <c r="G50">
+        <v>2201.7269999999999</v>
+      </c>
+      <c r="H50">
+        <v>5140.7569999999996</v>
+      </c>
+      <c r="I50">
+        <v>373.947</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>881.17899999999997</v>
+      </c>
+      <c r="O50">
+        <v>1368.8409999999999</v>
+      </c>
+      <c r="P50">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="Q50">
+        <v>266.49200000000002</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>17800</v>
+      </c>
+      <c r="T50">
+        <v>3771.9160000000002</v>
+      </c>
+      <c r="U50">
+        <v>394.70100000000002</v>
+      </c>
+      <c r="V50">
+        <v>135.92699999999999</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-128.876</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>98.986000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>72.081000000000003</v>
+      </c>
+      <c r="D51">
+        <v>1585.71</v>
+      </c>
+      <c r="E51">
+        <v>1690.819</v>
+      </c>
+      <c r="F51">
+        <v>238.273</v>
+      </c>
+      <c r="G51">
+        <v>2185.665</v>
+      </c>
+      <c r="H51">
+        <v>5154.8180000000002</v>
+      </c>
+      <c r="I51">
+        <v>666.65</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>829.88599999999997</v>
+      </c>
+      <c r="O51">
+        <v>1323.9970000000001</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>-28.082000000000001</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>3830.8209999999999</v>
+      </c>
+      <c r="U51">
+        <v>366.61900000000003</v>
+      </c>
+      <c r="V51">
+        <v>44.131999999999998</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-4.9569999999999999</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-8.5449999999999999</v>
+      </c>
+      <c r="AA51">
+        <v>72.081000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>70.236999999999995</v>
+      </c>
+      <c r="D52">
+        <v>1474.377</v>
+      </c>
+      <c r="E52">
+        <v>1687.981</v>
+      </c>
+      <c r="F52">
+        <v>241.28399999999999</v>
+      </c>
+      <c r="G52">
+        <v>2176.8270000000002</v>
+      </c>
+      <c r="H52">
+        <v>5187.9309999999996</v>
+      </c>
+      <c r="I52">
+        <v>611.99699999999996</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>800.41499999999996</v>
+      </c>
+      <c r="O52">
+        <v>1300.0920000000001</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>-3.5059999999999998</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>3887.8389999999999</v>
+      </c>
+      <c r="U52">
+        <v>363.113</v>
+      </c>
+      <c r="V52">
+        <v>117.776</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-0.96399999999999997</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-0.92500000000000004</v>
+      </c>
+      <c r="AA52">
+        <v>70.236999999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>92.906000000000006</v>
+      </c>
+      <c r="D53">
+        <v>1645.1320000000001</v>
+      </c>
+      <c r="E53">
+        <v>1666.9929999999999</v>
+      </c>
+      <c r="F53">
+        <v>273.053</v>
+      </c>
+      <c r="G53">
+        <v>2137.3870000000002</v>
+      </c>
+      <c r="H53">
+        <v>5494.9679999999998</v>
+      </c>
+      <c r="I53">
+        <v>757.26700000000005</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>-0.22700000000000001</v>
+      </c>
+      <c r="N53">
+        <v>964.78700000000003</v>
+      </c>
+      <c r="O53">
+        <v>1470.7139999999999</v>
+      </c>
+      <c r="P53">
+        <v>2.6389999999999998</v>
+      </c>
+      <c r="Q53">
+        <v>-53.96</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>4024.2539999999999</v>
+      </c>
+      <c r="U53">
+        <v>309.15300000000002</v>
+      </c>
+      <c r="V53">
+        <v>83.191999999999993</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-2.452</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-0.71299999999999997</v>
+      </c>
+      <c r="AA53">
+        <v>92.906000000000006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>166.697</v>
+      </c>
+      <c r="D54">
+        <v>1817.623</v>
+      </c>
+      <c r="E54">
+        <v>1652.5930000000001</v>
+      </c>
+      <c r="F54">
+        <v>302.84300000000002</v>
+      </c>
+      <c r="G54">
+        <v>2313.3180000000002</v>
+      </c>
+      <c r="H54">
+        <v>5793.2449999999999</v>
+      </c>
+      <c r="I54">
+        <v>412.601</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1042.4670000000001</v>
+      </c>
+      <c r="O54">
+        <v>1551.9259999999999</v>
+      </c>
+      <c r="P54">
+        <v>2.234</v>
+      </c>
+      <c r="Q54">
+        <v>179.624</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>20900</v>
+      </c>
+      <c r="T54">
+        <v>4241.3190000000004</v>
+      </c>
+      <c r="U54">
+        <v>488.77699999999999</v>
+      </c>
+      <c r="V54">
+        <v>201.49199999999999</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-8.2780000000000005</v>
+      </c>
+      <c r="Y54">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="Z54">
+        <v>209.66200000000001</v>
+      </c>
+      <c r="AA54">
+        <v>166.697</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>54.408000000000001</v>
+      </c>
+      <c r="D55">
+        <v>1735.4480000000001</v>
+      </c>
+      <c r="E55">
+        <v>1776.8230000000001</v>
+      </c>
+      <c r="F55">
+        <v>256.05399999999997</v>
+      </c>
+      <c r="G55">
+        <v>2214.4569999999999</v>
+      </c>
+      <c r="H55">
+        <v>5826.62</v>
+      </c>
+      <c r="I55">
+        <v>772.18499999999995</v>
+      </c>
+      <c r="J55">
+        <v>3.6230000000000002</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>982.47500000000002</v>
+      </c>
+      <c r="O55">
+        <v>1509.944</v>
+      </c>
+      <c r="P55">
+        <v>6.2060000000000004</v>
+      </c>
+      <c r="Q55">
+        <v>-215.43700000000001</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>4316.6760000000004</v>
+      </c>
+      <c r="U55">
+        <v>273.33999999999997</v>
+      </c>
+      <c r="V55">
+        <v>-60.533000000000001</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-10.246</v>
+      </c>
+      <c r="Y55">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="Z55">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AA55">
+        <v>54.408000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>81.081999999999994</v>
+      </c>
+      <c r="D56">
+        <v>1838.2090000000001</v>
+      </c>
+      <c r="E56">
+        <v>1828.366</v>
+      </c>
+      <c r="F56">
+        <v>264.209</v>
+      </c>
+      <c r="G56">
+        <v>2242.9279999999999</v>
+      </c>
+      <c r="H56">
+        <v>5909.0590000000002</v>
+      </c>
+      <c r="I56">
+        <v>734.596</v>
+      </c>
+      <c r="J56">
+        <v>4.1470000000000002</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>-334.21</v>
+      </c>
+      <c r="N56">
+        <v>967.19600000000003</v>
+      </c>
+      <c r="O56">
+        <v>1507.972</v>
+      </c>
+      <c r="P56">
+        <v>5.8170000000000002</v>
+      </c>
+      <c r="Q56">
+        <v>-84.391999999999996</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>4401.0870000000004</v>
+      </c>
+      <c r="U56">
+        <v>188.94800000000001</v>
+      </c>
+      <c r="V56">
+        <v>32.756</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-44.808999999999997</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-1.0329999999999999</v>
+      </c>
+      <c r="AA56">
+        <v>81.081999999999994</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>94.647999999999996</v>
+      </c>
+      <c r="D57">
+        <v>2145.9580000000001</v>
+      </c>
+      <c r="E57">
+        <v>2190.018</v>
+      </c>
+      <c r="F57">
+        <v>336.90300000000002</v>
+      </c>
+      <c r="G57">
+        <v>2536.4670000000001</v>
+      </c>
+      <c r="H57">
+        <v>6229.2889999999998</v>
+      </c>
+      <c r="I57">
+        <v>881.76800000000003</v>
+      </c>
+      <c r="J57">
+        <v>82.132999999999996</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>-317.53699999999998</v>
+      </c>
+      <c r="N57">
+        <v>1128.127</v>
+      </c>
+      <c r="O57">
+        <v>1740.6579999999999</v>
+      </c>
+      <c r="P57">
+        <v>84.872</v>
+      </c>
+      <c r="Q57">
+        <v>-44.789000000000001</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>4488.6310000000003</v>
+      </c>
+      <c r="U57">
+        <v>144.15899999999999</v>
+      </c>
+      <c r="V57">
+        <v>65.3</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>56.326000000000001</v>
+      </c>
+      <c r="Y57">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="Z57">
+        <v>-0.438</v>
+      </c>
+      <c r="AA57">
+        <v>94.647999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>66.575999999999993</v>
+      </c>
+      <c r="D58">
+        <v>2027.614</v>
+      </c>
+      <c r="E58">
+        <v>2091.5569999999998</v>
+      </c>
+      <c r="F58">
+        <v>311.62799999999999</v>
+      </c>
+      <c r="G58">
+        <v>2495.7040000000002</v>
+      </c>
+      <c r="H58">
+        <v>6253.5829999999996</v>
+      </c>
+      <c r="I58">
+        <v>477.37</v>
+      </c>
+      <c r="J58">
+        <v>72.489000000000004</v>
+      </c>
+      <c r="K58">
+        <v>5.056</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1106.3109999999999</v>
+      </c>
+      <c r="O58">
+        <v>1728.0429999999999</v>
+      </c>
+      <c r="P58">
+        <v>81.364999999999995</v>
+      </c>
+      <c r="Q58">
+        <v>46.356000000000002</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>24600</v>
+      </c>
+      <c r="T58">
+        <v>4525.54</v>
+      </c>
+      <c r="U58">
+        <v>190.51499999999999</v>
+      </c>
+      <c r="V58">
+        <v>273.30099999999999</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-59.618000000000002</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>4.2990000000000004</v>
+      </c>
+      <c r="AA58">
+        <v>66.575999999999993</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>53.484000000000002</v>
+      </c>
+      <c r="D59">
+        <v>1861.386</v>
+      </c>
+      <c r="E59">
+        <v>1983.865</v>
+      </c>
+      <c r="F59">
+        <v>237.90600000000001</v>
+      </c>
+      <c r="G59">
+        <v>2387.64</v>
+      </c>
+      <c r="H59">
+        <v>6140.8339999999998</v>
+      </c>
+      <c r="I59">
+        <v>874.62699999999995</v>
+      </c>
+      <c r="J59">
+        <v>115.002</v>
+      </c>
+      <c r="K59">
+        <v>4.1340000000000003</v>
+      </c>
+      <c r="L59">
+        <v>-0.92200000000000004</v>
+      </c>
+      <c r="M59">
+        <v>-104.343</v>
+      </c>
+      <c r="N59">
+        <v>1124.31</v>
+      </c>
+      <c r="O59">
+        <v>1830.0809999999999</v>
+      </c>
+      <c r="P59">
+        <v>124.44199999999999</v>
+      </c>
+      <c r="Q59">
+        <v>-54.981000000000002</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>4310.7529999999997</v>
+      </c>
+      <c r="U59">
+        <v>135.53399999999999</v>
+      </c>
+      <c r="V59">
+        <v>189.227</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-142.23500000000001</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-0.48699999999999999</v>
+      </c>
+      <c r="AA59">
+        <v>53.484000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>46.109000000000002</v>
+      </c>
+      <c r="D60">
+        <v>1872.34</v>
+      </c>
+      <c r="E60">
+        <v>1974.3440000000001</v>
+      </c>
+      <c r="F60">
+        <v>227.505</v>
+      </c>
+      <c r="G60">
+        <v>2315.567</v>
+      </c>
+      <c r="H60">
+        <v>6130.51</v>
+      </c>
+      <c r="I60">
+        <v>872.25199999999995</v>
+      </c>
+      <c r="J60">
+        <v>214.255</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>-4.2480000000000002</v>
+      </c>
+      <c r="M60">
+        <v>-529.70000000000005</v>
+      </c>
+      <c r="N60">
+        <v>1179.1479999999999</v>
+      </c>
+      <c r="O60">
+        <v>1920.7919999999999</v>
+      </c>
+      <c r="P60">
+        <v>216.893</v>
+      </c>
+      <c r="Q60">
+        <v>-70.106999999999999</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>4209.7179999999998</v>
+      </c>
+      <c r="U60">
+        <v>65.427000000000007</v>
+      </c>
+      <c r="V60">
+        <v>117.556</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-83.16</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>1.087</v>
+      </c>
+      <c r="AA60">
+        <v>46.109000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>216.38800000000001</v>
+      </c>
+      <c r="D61">
+        <v>1939.4380000000001</v>
+      </c>
+      <c r="E61">
+        <v>2052.335</v>
+      </c>
+      <c r="F61">
+        <v>235.215</v>
+      </c>
+      <c r="G61">
+        <v>2362.6640000000002</v>
+      </c>
+      <c r="H61">
+        <v>5373.424</v>
+      </c>
+      <c r="I61">
+        <v>936.13499999999999</v>
+      </c>
+      <c r="J61">
+        <v>342.97199999999998</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>-1343.463</v>
+      </c>
+      <c r="N61">
+        <v>1340.538</v>
+      </c>
+      <c r="O61">
+        <v>2169.5100000000002</v>
+      </c>
+      <c r="P61">
+        <v>350.55900000000003</v>
+      </c>
+      <c r="Q61">
+        <v>-16.233000000000001</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>3203.9140000000002</v>
+      </c>
+      <c r="U61">
+        <v>49.194000000000003</v>
+      </c>
+      <c r="V61">
+        <v>110.209</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-1034.502</v>
+      </c>
+      <c r="Y61">
+        <v>5.2370000000000001</v>
+      </c>
+      <c r="Z61">
+        <v>-2.0110000000000001</v>
+      </c>
+      <c r="AA61">
+        <v>216.38800000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>-5.0739999999999998</v>
+      </c>
+      <c r="D62">
+        <v>1899.2719999999999</v>
+      </c>
+      <c r="E62">
+        <v>1938.8779999999999</v>
+      </c>
+      <c r="F62">
+        <v>223.03899999999999</v>
+      </c>
+      <c r="G62">
+        <v>2277.5189999999998</v>
+      </c>
+      <c r="H62">
+        <v>5213.5429999999997</v>
+      </c>
+      <c r="I62">
+        <v>452.29500000000002</v>
+      </c>
+      <c r="J62">
+        <v>475.36399999999998</v>
+      </c>
+      <c r="K62">
+        <v>4.8289999999999997</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1203.7439999999999</v>
+      </c>
+      <c r="O62">
+        <v>2125.7280000000001</v>
+      </c>
+      <c r="P62">
+        <v>482.43099999999998</v>
+      </c>
+      <c r="Q62">
+        <v>79.576999999999998</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>24500</v>
+      </c>
+      <c r="T62">
+        <v>3087.8150000000001</v>
+      </c>
+      <c r="U62">
+        <v>128.77099999999999</v>
+      </c>
+      <c r="V62">
+        <v>223.53299999999999</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>42.518999999999998</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-9.0009999999999994</v>
+      </c>
+      <c r="AA62">
+        <v>-5.0739999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>20.495999999999999</v>
+      </c>
+      <c r="D63">
+        <v>1713.7370000000001</v>
+      </c>
+      <c r="E63">
+        <v>1876.473</v>
+      </c>
+      <c r="F63">
+        <v>203.31299999999999</v>
+      </c>
+      <c r="G63">
+        <v>2248.3739999999998</v>
+      </c>
+      <c r="H63">
+        <v>5295.5190000000002</v>
+      </c>
+      <c r="I63">
+        <v>788.01400000000001</v>
+      </c>
+      <c r="J63">
+        <v>402.59199999999998</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>-4.7110000000000003</v>
+      </c>
+      <c r="M63">
+        <v>-734.45799999999997</v>
+      </c>
+      <c r="N63">
+        <v>1235.9110000000001</v>
+      </c>
+      <c r="O63">
+        <v>2122.29</v>
+      </c>
+      <c r="P63">
+        <v>408.21199999999999</v>
+      </c>
+      <c r="Q63">
+        <v>26.544</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>3173.2289999999998</v>
+      </c>
+      <c r="U63">
+        <v>155.315</v>
+      </c>
+      <c r="V63">
+        <v>205.81100000000001</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-90.774000000000001</v>
+      </c>
+      <c r="Y63">
+        <v>1.466</v>
+      </c>
+      <c r="Z63">
+        <v>-1.6479999999999999</v>
+      </c>
+      <c r="AA63">
+        <v>20.495999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>16.562000000000001</v>
+      </c>
+      <c r="D64">
+        <v>1792.43</v>
+      </c>
+      <c r="E64">
+        <v>1851.03</v>
+      </c>
+      <c r="F64">
+        <v>200.21700000000001</v>
+      </c>
+      <c r="G64">
+        <v>2244.3870000000002</v>
+      </c>
+      <c r="H64">
+        <v>5297.1009999999997</v>
+      </c>
+      <c r="I64">
+        <v>809.32100000000003</v>
+      </c>
+      <c r="J64">
+        <v>397.22</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>-697.36</v>
+      </c>
+      <c r="N64">
+        <v>1208.0889999999999</v>
+      </c>
+      <c r="O64">
+        <v>2093.9270000000001</v>
+      </c>
+      <c r="P64">
+        <v>406.72199999999998</v>
+      </c>
+      <c r="Q64">
+        <v>7.0289999999999999</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>3203.174</v>
+      </c>
+      <c r="U64">
+        <v>162.34399999999999</v>
+      </c>
+      <c r="V64">
+        <v>67.81</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-1.7849999999999999</v>
+      </c>
+      <c r="Y64">
+        <v>3.899</v>
+      </c>
+      <c r="Z64">
+        <v>-2.66</v>
+      </c>
+      <c r="AA64">
+        <v>16.562000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>73.742000000000004</v>
+      </c>
+      <c r="D65">
+        <v>2042.1859999999999</v>
+      </c>
+      <c r="E65">
+        <v>2062.9259999999999</v>
+      </c>
+      <c r="F65">
+        <v>302.58199999999999</v>
+      </c>
+      <c r="G65">
+        <v>2405.3510000000001</v>
+      </c>
+      <c r="H65">
+        <v>5476.4679999999998</v>
+      </c>
+      <c r="I65">
+        <v>925.38699999999994</v>
+      </c>
+      <c r="J65">
+        <v>478.53100000000001</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>-626.27599999999995</v>
+      </c>
+      <c r="N65">
+        <v>1245.9079999999999</v>
+      </c>
+      <c r="O65">
+        <v>2199.8829999999998</v>
+      </c>
+      <c r="P65">
+        <v>487.46</v>
+      </c>
+      <c r="Q65">
+        <v>-44.978000000000002</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>3276.585</v>
+      </c>
+      <c r="U65">
+        <v>117.366</v>
+      </c>
+      <c r="V65">
+        <v>-68.528000000000006</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>82.1</v>
+      </c>
+      <c r="Y65">
+        <v>3.8679999999999999</v>
+      </c>
+      <c r="Z65">
+        <v>-1.1910000000000001</v>
+      </c>
+      <c r="AA65">
+        <v>73.742000000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>87.582999999999998</v>
+      </c>
+      <c r="D66">
+        <v>2102.9659999999999</v>
+      </c>
+      <c r="E66">
+        <v>1973.423</v>
+      </c>
+      <c r="F66">
+        <v>307.68799999999999</v>
+      </c>
+      <c r="G66">
+        <v>2288.7449999999999</v>
+      </c>
+      <c r="H66">
+        <v>5354.0590000000002</v>
+      </c>
+      <c r="I66">
+        <v>529.60799999999995</v>
+      </c>
+      <c r="J66">
+        <v>353.56200000000001</v>
+      </c>
+      <c r="K66">
+        <v>2.7349999999999999</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1205.2280000000001</v>
+      </c>
+      <c r="O66">
+        <v>2011.357</v>
+      </c>
+      <c r="P66">
+        <v>361.125</v>
+      </c>
+      <c r="Q66">
+        <v>-5.1829999999999998</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>28100</v>
+      </c>
+      <c r="T66">
+        <v>3342.7020000000002</v>
+      </c>
+      <c r="U66">
+        <v>112.18300000000001</v>
+      </c>
+      <c r="V66">
+        <v>184.059</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-123.377</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="AA66">
+        <v>87.582999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>48.267000000000003</v>
+      </c>
+      <c r="D67">
+        <v>2178.17</v>
+      </c>
+      <c r="E67">
+        <v>2145.7840000000001</v>
+      </c>
+      <c r="F67">
+        <v>266.18799999999999</v>
+      </c>
+      <c r="G67">
+        <v>2474.913</v>
+      </c>
+      <c r="H67">
+        <v>5543.0529999999999</v>
+      </c>
+      <c r="I67">
+        <v>995.91399999999999</v>
+      </c>
+      <c r="J67">
+        <v>417.50200000000001</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>-2.7829999999999999</v>
+      </c>
+      <c r="M67">
+        <v>-632.97</v>
+      </c>
+      <c r="N67">
+        <v>1264.7380000000001</v>
+      </c>
+      <c r="O67">
+        <v>2144.2420000000002</v>
+      </c>
+      <c r="P67">
+        <v>423.3</v>
+      </c>
+      <c r="Q67">
+        <v>-6.8780000000000001</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>3398.8110000000001</v>
+      </c>
+      <c r="U67">
+        <v>106.514</v>
+      </c>
+      <c r="V67">
+        <v>-3.7050000000000001</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>44.311</v>
+      </c>
+      <c r="Y67">
+        <v>1.8080000000000001</v>
+      </c>
+      <c r="Z67">
+        <v>-5.4260000000000002</v>
+      </c>
+      <c r="AA67">
+        <v>48.267000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>63.837000000000003</v>
+      </c>
+      <c r="D68">
+        <v>2200.3739999999998</v>
+      </c>
+      <c r="E68">
+        <v>2244.9929999999999</v>
+      </c>
+      <c r="F68">
+        <v>302.16500000000002</v>
+      </c>
+      <c r="G68">
+        <v>2617.1990000000001</v>
+      </c>
+      <c r="H68">
+        <v>5753.3440000000001</v>
+      </c>
+      <c r="I68">
+        <v>969.654</v>
+      </c>
+      <c r="J68">
+        <v>481.76600000000002</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>-493.29700000000003</v>
+      </c>
+      <c r="N68">
+        <v>1286.0160000000001</v>
+      </c>
+      <c r="O68">
+        <v>2244.0129999999999</v>
+      </c>
+      <c r="P68">
+        <v>485.01299999999998</v>
+      </c>
+      <c r="Q68">
+        <v>-4.9240000000000004</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>3509.3310000000001</v>
+      </c>
+      <c r="U68">
+        <v>99.564999999999998</v>
+      </c>
+      <c r="V68">
+        <v>4.8339999999999996</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>55.59</v>
+      </c>
+      <c r="Y68">
+        <v>1.8720000000000001</v>
+      </c>
+      <c r="Z68">
+        <v>-8.6140000000000008</v>
+      </c>
+      <c r="AA68">
+        <v>63.837000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>89.313000000000002</v>
+      </c>
+      <c r="D69">
+        <v>2609.3069999999998</v>
+      </c>
+      <c r="E69">
+        <v>2623.0210000000002</v>
+      </c>
+      <c r="F69">
+        <v>350.63099999999997</v>
+      </c>
+      <c r="G69">
+        <v>2948.239</v>
+      </c>
+      <c r="H69">
+        <v>6640.2460000000001</v>
+      </c>
+      <c r="I69">
+        <v>1210.9449999999999</v>
+      </c>
+      <c r="J69">
+        <v>758.29899999999998</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>-541.59799999999996</v>
+      </c>
+      <c r="N69">
+        <v>1592.492</v>
+      </c>
+      <c r="O69">
+        <v>2910.0149999999999</v>
+      </c>
+      <c r="P69">
+        <v>763.01199999999994</v>
+      </c>
+      <c r="Q69">
+        <v>-7.3739999999999997</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>3730.2310000000002</v>
+      </c>
+      <c r="U69">
+        <v>91.531999999999996</v>
+      </c>
+      <c r="V69">
+        <v>173.56700000000001</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>270.13299999999998</v>
+      </c>
+      <c r="Y69">
+        <v>1.909</v>
+      </c>
+      <c r="Z69">
+        <v>-39.881</v>
+      </c>
+      <c r="AA69">
+        <v>89.313000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>113.56100000000001</v>
+      </c>
+      <c r="D70">
+        <v>2478.627</v>
+      </c>
+      <c r="E70">
+        <v>2482.3690000000001</v>
+      </c>
+      <c r="F70">
+        <v>322.87599999999998</v>
+      </c>
+      <c r="G70">
+        <v>2869.9070000000002</v>
+      </c>
+      <c r="H70">
+        <v>6480.1540000000005</v>
+      </c>
+      <c r="I70">
+        <v>632.93100000000004</v>
+      </c>
+      <c r="J70">
+        <v>670.721</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1492.067</v>
+      </c>
+      <c r="O70">
+        <v>2684.5250000000001</v>
+      </c>
+      <c r="P70">
+        <v>671.94100000000003</v>
+      </c>
+      <c r="Q70">
+        <v>48.540999999999997</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>32800</v>
+      </c>
+      <c r="T70">
+        <v>3795.6289999999999</v>
+      </c>
+      <c r="U70">
+        <v>138.285</v>
+      </c>
+      <c r="V70">
+        <v>197.19499999999999</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-142.27000000000001</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>63.182000000000002</v>
+      </c>
+      <c r="AA70">
+        <v>113.56100000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>37.613999999999997</v>
+      </c>
+      <c r="D71">
+        <v>2417.576</v>
+      </c>
+      <c r="E71">
+        <v>2586.8719999999998</v>
+      </c>
+      <c r="F71">
+        <v>301.048</v>
+      </c>
+      <c r="G71">
+        <v>2957.069</v>
+      </c>
+      <c r="H71">
+        <v>6653.402</v>
+      </c>
+      <c r="I71">
+        <v>1040.6610000000001</v>
+      </c>
+      <c r="J71">
+        <v>881.82299999999998</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-760.71500000000003</v>
+      </c>
+      <c r="N71">
+        <v>1549.6389999999999</v>
+      </c>
+      <c r="O71">
+        <v>3006.4369999999999</v>
+      </c>
+      <c r="P71">
+        <v>885.57</v>
+      </c>
+      <c r="Q71">
+        <v>-38.494999999999997</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>3646.9650000000001</v>
+      </c>
+      <c r="U71">
+        <v>101.736</v>
+      </c>
+      <c r="V71">
+        <v>25.992999999999999</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>26.719000000000001</v>
+      </c>
+      <c r="Y71">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="Z71">
+        <v>-0.13200000000000001</v>
+      </c>
+      <c r="AA71">
+        <v>37.613999999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>74.364999999999995</v>
+      </c>
+      <c r="D72">
+        <v>2656.348</v>
+      </c>
+      <c r="E72">
+        <v>2659.8220000000001</v>
+      </c>
+      <c r="F72">
+        <v>333.37099999999998</v>
+      </c>
+      <c r="G72">
+        <v>3074.8359999999998</v>
+      </c>
+      <c r="H72">
+        <v>6790.3819999999996</v>
+      </c>
+      <c r="I72">
+        <v>1167.5830000000001</v>
+      </c>
+      <c r="J72">
+        <v>839.77800000000002</v>
+      </c>
+      <c r="K72">
+        <v>12.922000000000001</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>-1101.9459999999999</v>
+      </c>
+      <c r="N72">
+        <v>1690.5650000000001</v>
+      </c>
+      <c r="O72">
+        <v>3096.9169999999999</v>
+      </c>
+      <c r="P72">
+        <v>856.24099999999999</v>
+      </c>
+      <c r="Q72">
+        <v>19.457000000000001</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>3693.4650000000001</v>
+      </c>
+      <c r="U72">
+        <v>120.357</v>
+      </c>
+      <c r="V72">
+        <v>156.52000000000001</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-44.822000000000003</v>
+      </c>
+      <c r="Y72">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="Z72">
+        <v>-0.65300000000000002</v>
+      </c>
+      <c r="AA72">
+        <v>74.364999999999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>124.551</v>
+      </c>
+      <c r="D73">
+        <v>2985.2809999999999</v>
+      </c>
+      <c r="E73">
+        <v>2971.614</v>
+      </c>
+      <c r="F73">
+        <v>425.83</v>
+      </c>
+      <c r="G73">
+        <v>3378.1219999999998</v>
+      </c>
+      <c r="H73">
+        <v>7191.174</v>
+      </c>
+      <c r="I73">
+        <v>1318.3820000000001</v>
+      </c>
+      <c r="J73">
+        <v>951.90099999999995</v>
+      </c>
+      <c r="K73">
+        <v>20.344000000000001</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>-743.49800000000005</v>
+      </c>
+      <c r="N73">
+        <v>1816.184</v>
+      </c>
+      <c r="O73">
+        <v>3366.94</v>
+      </c>
+      <c r="P73">
+        <v>975.697</v>
+      </c>
+      <c r="Q73">
+        <v>-6.5629999999999997</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>3824.2339999999999</v>
+      </c>
+      <c r="U73">
+        <v>113.524</v>
+      </c>
+      <c r="V73">
+        <v>39.103999999999999</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>90.962999999999994</v>
+      </c>
+      <c r="Y73">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="Z73">
+        <v>-19.390999999999998</v>
+      </c>
+      <c r="AA73">
+        <v>124.551</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>56.816000000000003</v>
+      </c>
+      <c r="D74">
+        <v>3112.2179999999998</v>
+      </c>
+      <c r="E74">
+        <v>2931.6280000000002</v>
+      </c>
+      <c r="F74">
+        <v>419.71499999999997</v>
+      </c>
+      <c r="G74">
+        <v>3326.1039999999998</v>
+      </c>
+      <c r="H74">
+        <v>7075.7870000000003</v>
+      </c>
+      <c r="I74">
+        <v>786.54600000000005</v>
+      </c>
+      <c r="J74">
+        <v>1039.598</v>
+      </c>
+      <c r="K74">
+        <v>33.421999999999997</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1806.127</v>
+      </c>
+      <c r="O74">
+        <v>3470.3339999999998</v>
+      </c>
+      <c r="P74">
+        <v>1106.1780000000001</v>
+      </c>
+      <c r="Q74">
+        <v>-34.917999999999999</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>39200</v>
+      </c>
+      <c r="T74">
+        <v>3605.453</v>
+      </c>
+      <c r="U74">
+        <v>78.686999999999998</v>
+      </c>
+      <c r="V74">
+        <v>137.172</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-89.43</v>
+      </c>
+      <c r="Y74">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="Z74">
+        <v>-12.028</v>
+      </c>
+      <c r="AA74">
+        <v>56.816000000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>120.488</v>
+      </c>
+      <c r="D75">
+        <v>2807.259</v>
+      </c>
+      <c r="E75">
+        <v>3153.913</v>
+      </c>
+      <c r="F75">
+        <v>363.98099999999999</v>
+      </c>
+      <c r="G75">
+        <v>3554.5439999999999</v>
+      </c>
+      <c r="H75">
+        <v>7652.5159999999996</v>
+      </c>
+      <c r="I75">
+        <v>1209.9269999999999</v>
+      </c>
+      <c r="J75">
+        <v>1344.421</v>
+      </c>
+      <c r="K75">
+        <v>11.263999999999999</v>
+      </c>
+      <c r="L75">
+        <v>-23.22</v>
+      </c>
+      <c r="M75">
+        <v>-1347.703</v>
+      </c>
+      <c r="N75">
+        <v>1778.7370000000001</v>
+      </c>
+      <c r="O75">
+        <v>3927.4589999999998</v>
+      </c>
+      <c r="P75">
+        <v>1675.1120000000001</v>
+      </c>
+      <c r="Q75">
+        <v>6.2359999999999998</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>3725.0569999999998</v>
+      </c>
+      <c r="U75">
+        <v>85.423000000000002</v>
+      </c>
+      <c r="V75">
+        <v>-82.75</v>
+      </c>
+      <c r="W75">
+        <v>-5.7519999999999998</v>
+      </c>
+      <c r="X75">
+        <v>236.26</v>
+      </c>
+      <c r="Y75">
+        <v>194.053</v>
+      </c>
+      <c r="Z75">
+        <v>-37.802999999999997</v>
+      </c>
+      <c r="AA75">
+        <v>120.488</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>27.344000000000001</v>
+      </c>
+      <c r="D76">
+        <v>2839.1990000000001</v>
+      </c>
+      <c r="E76">
+        <v>3315.6680000000001</v>
+      </c>
+      <c r="F76">
+        <v>319.505</v>
+      </c>
+      <c r="G76">
+        <v>3751.9319999999998</v>
+      </c>
+      <c r="H76">
+        <v>8021.817</v>
+      </c>
+      <c r="I76">
+        <v>1260.2929999999999</v>
+      </c>
+      <c r="J76">
+        <v>1516.5889999999999</v>
+      </c>
+      <c r="K76">
+        <v>18.814</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>-901.61800000000005</v>
+      </c>
+      <c r="N76">
+        <v>1906.2329999999999</v>
+      </c>
+      <c r="O76">
+        <v>4245.558</v>
+      </c>
+      <c r="P76">
+        <v>1855.095</v>
+      </c>
+      <c r="Q76">
+        <v>-11.375</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>3776.259</v>
+      </c>
+      <c r="U76">
+        <v>73.355999999999995</v>
+      </c>
+      <c r="V76">
+        <v>-108.664</v>
+      </c>
+      <c r="W76">
+        <v>-5.83</v>
+      </c>
+      <c r="X76">
+        <v>165.37799999999999</v>
+      </c>
+      <c r="Y76">
+        <v>192.88</v>
+      </c>
+      <c r="Z76">
+        <v>-0.127</v>
+      </c>
+      <c r="AA76">
+        <v>27.344000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>136.06800000000001</v>
+      </c>
+      <c r="D77">
+        <v>3352.895</v>
+      </c>
+      <c r="E77">
+        <v>3841.2429999999999</v>
+      </c>
+      <c r="F77">
+        <v>473.44499999999999</v>
+      </c>
+      <c r="G77">
+        <v>4301.9269999999997</v>
+      </c>
+      <c r="H77">
+        <v>8865.0930000000008</v>
+      </c>
+      <c r="I77">
+        <v>1534.8969999999999</v>
+      </c>
+      <c r="J77">
+        <v>1809.884</v>
+      </c>
+      <c r="K77">
+        <v>7.6219999999999999</v>
+      </c>
+      <c r="L77">
+        <v>-11.170999999999999</v>
+      </c>
+      <c r="M77">
+        <v>-1791.28</v>
+      </c>
+      <c r="N77">
+        <v>2357.5230000000001</v>
+      </c>
+      <c r="O77">
+        <v>4955.8860000000004</v>
+      </c>
+      <c r="P77">
+        <v>2177.6329999999998</v>
+      </c>
+      <c r="Q77">
+        <v>6.3940000000000001</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>3909.2069999999999</v>
+      </c>
+      <c r="U77">
+        <v>80.043999999999997</v>
+      </c>
+      <c r="V77">
+        <v>91.167000000000002</v>
+      </c>
+      <c r="W77">
+        <v>-5.8029999999999999</v>
+      </c>
+      <c r="X77">
+        <v>307.11099999999999</v>
+      </c>
+      <c r="Y77">
+        <v>198.49199999999999</v>
+      </c>
+      <c r="Z77">
+        <v>-1.0649999999999999</v>
+      </c>
+      <c r="AA77">
+        <v>136.06800000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>118.14400000000001</v>
+      </c>
+      <c r="D78">
+        <v>3112.8</v>
+      </c>
+      <c r="E78">
+        <v>3349.1790000000001</v>
+      </c>
+      <c r="F78">
+        <v>443.32100000000003</v>
+      </c>
+      <c r="G78">
+        <v>3830.9859999999999</v>
+      </c>
+      <c r="H78">
+        <v>8331.6820000000007</v>
+      </c>
+      <c r="I78">
+        <v>798.71799999999996</v>
+      </c>
+      <c r="J78">
+        <v>1291.6780000000001</v>
+      </c>
+      <c r="K78">
+        <v>6.5419999999999998</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2263.049</v>
+      </c>
+      <c r="O78">
+        <v>4277.8509999999997</v>
+      </c>
+      <c r="P78">
+        <v>1656.06</v>
+      </c>
+      <c r="Q78">
+        <v>85.233999999999995</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>40300</v>
+      </c>
+      <c r="T78">
+        <v>4053.8310000000001</v>
+      </c>
+      <c r="U78">
+        <v>164.798</v>
+      </c>
+      <c r="V78">
+        <v>626.798</v>
+      </c>
+      <c r="W78">
+        <v>-5.851</v>
+      </c>
+      <c r="X78">
+        <v>-531.06200000000001</v>
+      </c>
+      <c r="Y78">
+        <v>197.03800000000001</v>
+      </c>
+      <c r="Z78">
+        <v>38.529000000000003</v>
+      </c>
+      <c r="AA78">
+        <v>118.14400000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>38.686</v>
+      </c>
+      <c r="D79">
+        <v>2764.0949999999998</v>
+      </c>
+      <c r="E79">
+        <v>3162.4650000000001</v>
+      </c>
+      <c r="F79">
+        <v>332.19600000000003</v>
+      </c>
+      <c r="G79">
+        <v>3758.6</v>
+      </c>
+      <c r="H79">
+        <v>8228.9439999999995</v>
+      </c>
+      <c r="I79">
+        <v>1256.46</v>
+      </c>
+      <c r="J79">
+        <v>1588.2570000000001</v>
+      </c>
+      <c r="K79">
+        <v>3.3780000000000001</v>
+      </c>
+      <c r="L79">
+        <v>-2.7989999999999999</v>
+      </c>
+      <c r="M79">
+        <v>-1171.5050000000001</v>
+      </c>
+      <c r="N79">
+        <v>2115.9090000000001</v>
+      </c>
+      <c r="O79">
+        <v>4433.7659999999996</v>
+      </c>
+      <c r="P79">
+        <v>1954.95</v>
+      </c>
+      <c r="Q79">
+        <v>211.893</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>3795.1779999999999</v>
+      </c>
+      <c r="U79">
+        <v>377.20499999999998</v>
+      </c>
+      <c r="V79">
+        <v>227.54900000000001</v>
+      </c>
+      <c r="W79">
+        <v>-7.3840000000000003</v>
+      </c>
+      <c r="X79">
+        <v>73.926000000000002</v>
+      </c>
+      <c r="Y79">
+        <v>201.87799999999999</v>
+      </c>
+      <c r="Z79">
+        <v>-5.6920000000000002</v>
+      </c>
+      <c r="AA79">
+        <v>38.686</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>73.945999999999998</v>
+      </c>
+      <c r="D80">
+        <v>2506.2310000000002</v>
+      </c>
+      <c r="E80">
+        <v>2860.0889999999999</v>
+      </c>
+      <c r="F80">
+        <v>355.26400000000001</v>
+      </c>
+      <c r="G80">
+        <v>3644.7550000000001</v>
+      </c>
+      <c r="H80">
+        <v>8089.63</v>
+      </c>
+      <c r="I80">
+        <v>1221.51</v>
+      </c>
+      <c r="J80">
+        <v>1314.645</v>
+      </c>
+      <c r="K80">
+        <v>1.7609999999999999</v>
+      </c>
+      <c r="L80">
+        <v>-1.62</v>
+      </c>
+      <c r="M80">
+        <v>-783.524</v>
+      </c>
+      <c r="N80">
+        <v>2093.3589999999999</v>
+      </c>
+      <c r="O80">
+        <v>4171.6279999999997</v>
+      </c>
+      <c r="P80">
+        <v>1670.0509999999999</v>
+      </c>
+      <c r="Q80">
+        <v>151.215</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>3918.002</v>
+      </c>
+      <c r="U80">
+        <v>530.66999999999996</v>
+      </c>
+      <c r="V80">
+        <v>497.47899999999998</v>
+      </c>
+      <c r="W80">
+        <v>-7.16</v>
+      </c>
+      <c r="X80">
+        <v>-310.63600000000002</v>
+      </c>
+      <c r="Y80">
+        <v>193.21100000000001</v>
+      </c>
+      <c r="Z80">
+        <v>-3.036</v>
+      </c>
+      <c r="AA80">
+        <v>73.945999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>162.91300000000001</v>
+      </c>
+      <c r="D81">
+        <v>3020.1610000000001</v>
+      </c>
+      <c r="E81">
+        <v>3228.7510000000002</v>
+      </c>
+      <c r="F81">
+        <v>507.51400000000001</v>
+      </c>
+      <c r="G81">
+        <v>3677.0079999999998</v>
+      </c>
+      <c r="H81">
+        <v>8325.4869999999992</v>
+      </c>
+      <c r="I81">
+        <v>1439.376</v>
+      </c>
+      <c r="J81">
+        <v>1201.5139999999999</v>
+      </c>
+      <c r="K81">
+        <v>2.887</v>
+      </c>
+      <c r="L81">
+        <v>-1.7609999999999999</v>
+      </c>
+      <c r="M81">
+        <v>-1649.2660000000001</v>
+      </c>
+      <c r="N81">
+        <v>2178.2730000000001</v>
+      </c>
+      <c r="O81">
+        <v>4169.9210000000003</v>
+      </c>
+      <c r="P81">
+        <v>1484.8109999999999</v>
+      </c>
+      <c r="Q81">
+        <v>-313.75099999999998</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>4155.5659999999998</v>
+      </c>
+      <c r="U81">
+        <v>216.935</v>
+      </c>
+      <c r="V81">
+        <v>114.85899999999999</v>
+      </c>
+      <c r="W81">
+        <v>-7.0010000000000003</v>
+      </c>
+      <c r="X81">
+        <v>-198.50399999999999</v>
+      </c>
+      <c r="Y81">
+        <v>185.91399999999999</v>
+      </c>
+      <c r="Z81">
+        <v>1.76</v>
+      </c>
+      <c r="AA81">
+        <v>162.91300000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>170.05099999999999</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>2912.1849999999999</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>3169.915</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>465.87299999999999</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>3588.3890000000001</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>8398.2720000000008</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>798.02300000000002</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>1172.912</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>4.2329999999999997</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>2138.556</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>4049.3</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>1453.0139999999999</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-32.293999999999997</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>35800</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>4348.9719999999998</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>184.62</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>276.08999999999997</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-7.3460000000000001</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-166.15100000000001</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>180.20400000000001</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>6.0750000000000002</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>170.05099999999999</v>
       </c>
     </row>
